--- a/Code/Results/Cases/Case_5_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.58329014141751</v>
+        <v>24.28326696858889</v>
       </c>
       <c r="C2">
-        <v>20.21386320737982</v>
+        <v>17.46290474601576</v>
       </c>
       <c r="D2">
-        <v>4.118308946840709</v>
+        <v>3.201258683417917</v>
       </c>
       <c r="E2">
-        <v>12.49435766332039</v>
+        <v>9.025311736786291</v>
       </c>
       <c r="F2">
-        <v>39.54634411489915</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>42.67238701390011</v>
       </c>
       <c r="I2">
-        <v>24.62347894840597</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.825303511886416</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.26379072420976</v>
       </c>
       <c r="L2">
-        <v>16.9185170691089</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>13.94625745402864</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.7446006365657</v>
+        <v>22.70448285727153</v>
       </c>
       <c r="C3">
-        <v>18.74842532202165</v>
+        <v>16.19943733369582</v>
       </c>
       <c r="D3">
-        <v>4.128881494110146</v>
+        <v>3.105701856075531</v>
       </c>
       <c r="E3">
-        <v>11.55605769192031</v>
+        <v>8.669650405266491</v>
       </c>
       <c r="F3">
-        <v>37.22891291421302</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>40.92052899183189</v>
       </c>
       <c r="I3">
-        <v>23.5718503100965</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.692883309403139</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.84681188013712</v>
       </c>
       <c r="L3">
-        <v>15.67785838757585</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>14.14606979785949</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.56096861753755</v>
+        <v>21.70200910364785</v>
       </c>
       <c r="C4">
-        <v>17.80696790361854</v>
+        <v>15.42267727429836</v>
       </c>
       <c r="D4">
-        <v>4.140656651432939</v>
+        <v>3.046867847854771</v>
       </c>
       <c r="E4">
-        <v>10.95573304159934</v>
+        <v>8.452007814394252</v>
       </c>
       <c r="F4">
-        <v>35.79162306226238</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>39.85800691341608</v>
       </c>
       <c r="I4">
-        <v>22.93927460171385</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.615955033049992</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.00230062648041</v>
       </c>
       <c r="L4">
-        <v>14.88273331295468</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>14.27370423022935</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.06455680068628</v>
+        <v>21.28529701696645</v>
       </c>
       <c r="C5">
-        <v>17.41254933317935</v>
+        <v>15.10283708393139</v>
       </c>
       <c r="D5">
-        <v>4.146652022421872</v>
+        <v>3.022882819419431</v>
       </c>
       <c r="E5">
-        <v>10.70479402977479</v>
+        <v>8.363580791486337</v>
       </c>
       <c r="F5">
-        <v>35.20254018732503</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>39.4285571270235</v>
       </c>
       <c r="I5">
-        <v>22.68480694870492</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.585683123235145</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.65197802712364</v>
       </c>
       <c r="L5">
-        <v>14.55005757632894</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>14.32692002047316</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.98126907370143</v>
+        <v>21.21561279020133</v>
       </c>
       <c r="C6">
-        <v>17.34639817390296</v>
+        <v>15.04929117808562</v>
       </c>
       <c r="D6">
-        <v>4.147716225319129</v>
+        <v>3.01890049856164</v>
       </c>
       <c r="E6">
-        <v>10.66273926964585</v>
+        <v>8.34891610290372</v>
       </c>
       <c r="F6">
-        <v>35.10452988499283</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>39.35746909393318</v>
       </c>
       <c r="I6">
-        <v>22.64275397426353</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.580720860716472</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.59344022900589</v>
       </c>
       <c r="L6">
-        <v>14.49428685246665</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>14.33582811396088</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.55433122256749</v>
+        <v>21.69642212899173</v>
       </c>
       <c r="C7">
-        <v>17.80169259526862</v>
+        <v>15.41839309664482</v>
       </c>
       <c r="D7">
-        <v>4.1407328258692</v>
+        <v>3.04654437359143</v>
       </c>
       <c r="E7">
-        <v>10.9523745763745</v>
+        <v>8.45081407170683</v>
       </c>
       <c r="F7">
-        <v>35.783691709442</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>39.8522005227512</v>
       </c>
       <c r="I7">
-        <v>22.93582930497782</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.615542445691911</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.99760080271888</v>
       </c>
       <c r="L7">
-        <v>14.87828211581573</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>14.27441709150905</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.96045186751729</v>
+        <v>23.74581773860604</v>
       </c>
       <c r="C8">
-        <v>19.71704761657544</v>
+        <v>17.0343580609736</v>
       </c>
       <c r="D8">
-        <v>4.120774488383267</v>
+        <v>3.168361906225429</v>
       </c>
       <c r="E8">
-        <v>12.17571907347399</v>
+        <v>8.902569852095766</v>
       </c>
       <c r="F8">
-        <v>38.75036684330385</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>42.06574053961457</v>
       </c>
       <c r="I8">
-        <v>24.25814339288405</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.778721394799354</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.74138507554282</v>
       </c>
       <c r="L8">
-        <v>16.49749125200131</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>14.01409868354295</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.26142475475943</v>
+        <v>27.75849809263677</v>
       </c>
       <c r="C9">
-        <v>23.1569597876048</v>
+        <v>20.00282058664449</v>
       </c>
       <c r="D9">
-        <v>4.130200267221844</v>
+        <v>3.404771589218414</v>
       </c>
       <c r="E9">
-        <v>14.3936308381558</v>
+        <v>9.791729199658361</v>
       </c>
       <c r="F9">
-        <v>44.45319338566102</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>46.50483687216272</v>
       </c>
       <c r="I9">
-        <v>26.95816377402369</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.134672369928939</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>24.35307309959375</v>
       </c>
       <c r="L9">
-        <v>19.42173029653257</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>13.54517645894458</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.1928674313005</v>
+        <v>30.54118958617889</v>
       </c>
       <c r="C10">
-        <v>25.51483396982811</v>
+        <v>22.03472015188708</v>
       </c>
       <c r="D10">
-        <v>4.177163442430249</v>
+        <v>3.575641716341936</v>
       </c>
       <c r="E10">
-        <v>15.93048323937685</v>
+        <v>10.44513075591605</v>
       </c>
       <c r="F10">
-        <v>48.6698463557919</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>49.8268249162282</v>
       </c>
       <c r="I10">
-        <v>29.01736529854648</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.420170836765407</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>26.81653466853724</v>
       </c>
       <c r="L10">
-        <v>21.43905976950482</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>13.2300826733391</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.48378248034958</v>
+        <v>31.76687251636157</v>
       </c>
       <c r="C11">
-        <v>26.55696076437252</v>
+        <v>22.93057832292806</v>
       </c>
       <c r="D11">
-        <v>4.20993052177739</v>
+        <v>3.652575164689884</v>
       </c>
       <c r="E11">
-        <v>16.61434430081368</v>
+        <v>10.74252409747239</v>
       </c>
       <c r="F11">
-        <v>50.66589839236324</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>51.35417608791906</v>
       </c>
       <c r="I11">
-        <v>29.97506009792065</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.555863877497951</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>27.90051162667193</v>
       </c>
       <c r="L11">
-        <v>22.33426482085006</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>13.09436930605133</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.96718697753636</v>
+        <v>32.22570478846357</v>
       </c>
       <c r="C12">
-        <v>26.94783580543969</v>
+        <v>23.26611303818356</v>
       </c>
       <c r="D12">
-        <v>4.22424163516283</v>
+        <v>3.68158435626877</v>
       </c>
       <c r="E12">
-        <v>16.87160173554189</v>
+        <v>10.85520894700459</v>
       </c>
       <c r="F12">
-        <v>51.42013231000012</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>51.9353280702899</v>
       </c>
       <c r="I12">
-        <v>30.34129855011555</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.60814938253697</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>28.30616497408003</v>
       </c>
       <c r="L12">
-        <v>22.67062496300384</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>13.04421101464774</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.86330665381345</v>
+        <v>32.12711468890638</v>
       </c>
       <c r="C13">
-        <v>26.8638096776075</v>
+        <v>23.19400766255281</v>
       </c>
       <c r="D13">
-        <v>4.221070264154026</v>
+        <v>3.675342304441926</v>
       </c>
       <c r="E13">
-        <v>16.81626383598644</v>
+        <v>10.83093612239392</v>
       </c>
       <c r="F13">
-        <v>51.25774536155354</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>51.81003375785483</v>
       </c>
       <c r="I13">
-        <v>30.26225225493286</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.596847464619416</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>28.21900697526755</v>
       </c>
       <c r="L13">
-        <v>22.59829021034423</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>13.05495612391688</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.52365702985745</v>
+        <v>31.80472429262176</v>
       </c>
       <c r="C14">
-        <v>26.58918955664006</v>
+        <v>22.95825482077203</v>
       </c>
       <c r="D14">
-        <v>4.211068130790617</v>
+        <v>3.654964283836962</v>
       </c>
       <c r="E14">
-        <v>16.63554008559469</v>
+        <v>10.75179299673233</v>
       </c>
       <c r="F14">
-        <v>50.72797463006901</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>51.40192885902765</v>
       </c>
       <c r="I14">
-        <v>30.00511508325301</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.560146941909943</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>27.93397885855</v>
       </c>
       <c r="L14">
-        <v>22.36198634164305</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>13.09021713714618</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.31492634896718</v>
+        <v>31.60657510193299</v>
       </c>
       <c r="C15">
-        <v>26.42050825673707</v>
+        <v>22.81337916488538</v>
       </c>
       <c r="D15">
-        <v>4.205197780938681</v>
+        <v>3.642465848398961</v>
       </c>
       <c r="E15">
-        <v>16.52463547372812</v>
+        <v>10.7033263781728</v>
       </c>
       <c r="F15">
-        <v>50.40330200862594</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>51.15233127142535</v>
       </c>
       <c r="I15">
-        <v>29.84809741103142</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.537786407337414</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>27.75877701190328</v>
       </c>
       <c r="L15">
-        <v>22.2169199753567</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>13.11198075049081</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.10770197187148</v>
+        <v>30.4603181665897</v>
       </c>
       <c r="C16">
-        <v>25.44616629814204</v>
+        <v>21.975632462687</v>
       </c>
       <c r="D16">
-        <v>4.175273193529487</v>
+        <v>3.570596989155008</v>
       </c>
       <c r="E16">
-        <v>15.88552397575578</v>
+        <v>10.42570175377345</v>
       </c>
       <c r="F16">
-        <v>48.5391027947556</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>49.72736854579814</v>
       </c>
       <c r="I16">
-        <v>28.95524367697487</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.411425250560953</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>26.74499307864702</v>
       </c>
       <c r="L16">
-        <v>21.38015227467895</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>13.23911631082758</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.35664997061947</v>
+        <v>29.74714523282331</v>
       </c>
       <c r="C17">
-        <v>24.84104468229934</v>
+        <v>21.45466639042085</v>
       </c>
       <c r="D17">
-        <v>4.160012456609709</v>
+        <v>3.526295478553895</v>
       </c>
       <c r="E17">
-        <v>15.48986161446564</v>
+        <v>10.25545095977928</v>
       </c>
       <c r="F17">
-        <v>47.39126283102122</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>48.85760283035203</v>
       </c>
       <c r="I17">
-        <v>28.4132211189406</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.335438423343454</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>26.11397547813939</v>
       </c>
       <c r="L17">
-        <v>20.86145608097273</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>13.31915086406139</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.92060622411688</v>
+        <v>29.3331325579646</v>
       </c>
       <c r="C18">
-        <v>24.49008226495305</v>
+        <v>21.15231475465399</v>
       </c>
       <c r="D18">
-        <v>4.152290542602779</v>
+        <v>3.500739709892019</v>
       </c>
       <c r="E18">
-        <v>15.26081675927749</v>
+        <v>10.15753744343949</v>
       </c>
       <c r="F18">
-        <v>46.77078637057556</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>48.35881989827786</v>
       </c>
       <c r="I18">
-        <v>28.10339251115525</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.292275774074943</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>25.74754925752022</v>
       </c>
       <c r="L18">
-        <v>20.5609575289824</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>13.36589243394907</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.77225309253623</v>
+        <v>29.19228684331035</v>
       </c>
       <c r="C19">
-        <v>24.37073483669245</v>
+        <v>21.04946825758734</v>
       </c>
       <c r="D19">
-        <v>4.149849891996236</v>
+        <v>3.492074507341539</v>
       </c>
       <c r="E19">
-        <v>15.18300010264855</v>
+        <v>10.12438649317939</v>
       </c>
       <c r="F19">
-        <v>46.56113618522358</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>48.19018459135963</v>
       </c>
       <c r="I19">
-        <v>27.9988067096917</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.277753166785526</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>25.62287316691362</v>
       </c>
       <c r="L19">
-        <v>20.45882666103851</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>13.38183620177441</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.4370161503761</v>
+        <v>29.82345534837991</v>
       </c>
       <c r="C20">
-        <v>24.90575814534495</v>
+        <v>21.51040156224403</v>
       </c>
       <c r="D20">
-        <v>4.161525937376584</v>
+        <v>3.531019267420863</v>
       </c>
       <c r="E20">
-        <v>15.53212946461934</v>
+        <v>10.27357315881586</v>
       </c>
       <c r="F20">
-        <v>47.51364144747774</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>48.95003468343487</v>
       </c>
       <c r="I20">
-        <v>28.4707172306854</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.343470735411442</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>26.1815056934357</v>
       </c>
       <c r="L20">
-        <v>20.91689154501748</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>13.31055689691968</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.62356179983406</v>
+        <v>31.89955803445537</v>
       </c>
       <c r="C21">
-        <v>26.66994850152362</v>
+        <v>23.02759835762553</v>
       </c>
       <c r="D21">
-        <v>4.213952076311382</v>
+        <v>3.660953210072983</v>
       </c>
       <c r="E21">
-        <v>16.6886649763504</v>
+        <v>10.77503686538322</v>
       </c>
       <c r="F21">
-        <v>50.88361464669933</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>51.52171920406845</v>
       </c>
       <c r="I21">
-        <v>30.08053988185535</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.570901712724587</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>28.01782555937201</v>
       </c>
       <c r="L21">
-        <v>22.43146068554389</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>13.07982540043046</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.02132038176879</v>
+        <v>33.22575856355694</v>
       </c>
       <c r="C22">
-        <v>27.80143737641262</v>
+        <v>23.99779419195088</v>
       </c>
       <c r="D22">
-        <v>4.259457227129213</v>
+        <v>3.745150499471045</v>
       </c>
       <c r="E22">
-        <v>17.43488267033152</v>
+        <v>11.10321697881044</v>
       </c>
       <c r="F22">
-        <v>53.07736832093421</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>53.21900801683893</v>
       </c>
       <c r="I22">
-        <v>31.15392719943482</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.724837994453273</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>29.19010384450543</v>
       </c>
       <c r="L22">
-        <v>23.40632747294231</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>12.93630583619297</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.2779100572033</v>
+        <v>32.52056684546712</v>
       </c>
       <c r="C23">
-        <v>27.19926996812217</v>
+        <v>23.48179332069633</v>
       </c>
       <c r="D23">
-        <v>4.234044808439425</v>
+        <v>3.700280498404743</v>
       </c>
       <c r="E23">
-        <v>17.03730799087914</v>
+        <v>10.92799649431512</v>
       </c>
       <c r="F23">
-        <v>51.90685600461925</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>52.31141708089413</v>
       </c>
       <c r="I23">
-        <v>30.57885492984367</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.64216884456534</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>28.56681911557216</v>
       </c>
       <c r="L23">
-        <v>22.88716577074913</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>13.0121853048519</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.40069590082372</v>
+        <v>29.7889680387758</v>
       </c>
       <c r="C24">
-        <v>24.87651079634329</v>
+        <v>21.48521256925754</v>
       </c>
       <c r="D24">
-        <v>4.160838436404944</v>
+        <v>3.528883910300387</v>
       </c>
       <c r="E24">
-        <v>15.51302510525395</v>
+        <v>10.26538022172652</v>
       </c>
       <c r="F24">
-        <v>47.45832099717895</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>48.90824235911097</v>
       </c>
       <c r="I24">
-        <v>28.44471771150404</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.33983770216914</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>26.15098667169913</v>
       </c>
       <c r="L24">
-        <v>20.89183635780695</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>13.31443996990997</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.14010863358488</v>
+        <v>26.69542660926997</v>
       </c>
       <c r="C25">
-        <v>22.25800150547467</v>
+        <v>19.2270859751675</v>
       </c>
       <c r="D25">
-        <v>4.121449947987957</v>
+        <v>3.341232394448286</v>
       </c>
       <c r="E25">
-        <v>13.81133451354424</v>
+        <v>9.55111415497281</v>
       </c>
       <c r="F25">
-        <v>42.92202127004787</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>45.2937992560076</v>
       </c>
       <c r="I25">
-        <v>26.21557840873049</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.034338578783079</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>23.41075741182992</v>
       </c>
       <c r="L25">
-        <v>18.65544367178802</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.6672171510268</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.28326696858889</v>
+        <v>13.33913074403007</v>
       </c>
       <c r="C2">
-        <v>17.46290474601576</v>
+        <v>7.606277582747293</v>
       </c>
       <c r="D2">
-        <v>3.201258683417917</v>
+        <v>5.243461718381076</v>
       </c>
       <c r="E2">
-        <v>9.025311736786291</v>
+        <v>7.899986836529618</v>
       </c>
       <c r="F2">
-        <v>42.67238701390011</v>
+        <v>20.78029036510274</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.825303511886416</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>21.26379072420976</v>
+        <v>10.87107521997978</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.180736946079397</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.8323522775651</v>
       </c>
       <c r="N2">
-        <v>13.94625745402864</v>
+        <v>13.35868262577684</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>17.15205732558065</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.70448285727153</v>
+        <v>12.52487986171983</v>
       </c>
       <c r="C3">
-        <v>16.19943733369582</v>
+        <v>7.575105835469271</v>
       </c>
       <c r="D3">
-        <v>3.105701856075531</v>
+        <v>5.116772288125151</v>
       </c>
       <c r="E3">
-        <v>8.669650405266491</v>
+        <v>7.904695724569168</v>
       </c>
       <c r="F3">
-        <v>40.92052899183189</v>
+        <v>20.47085236323834</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.692883309403139</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>19.84681188013712</v>
+        <v>10.23958713171475</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.100193401941128</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.516735847302376</v>
       </c>
       <c r="N3">
-        <v>14.14606979785949</v>
+        <v>13.55972700569845</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>17.11627476959326</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.70200910364785</v>
+        <v>12.00125454255998</v>
       </c>
       <c r="C4">
-        <v>15.42267727429836</v>
+        <v>7.556348786003969</v>
       </c>
       <c r="D4">
-        <v>3.046867847854771</v>
+        <v>5.03679033763748</v>
       </c>
       <c r="E4">
-        <v>8.452007814394252</v>
+        <v>7.911277299279987</v>
       </c>
       <c r="F4">
-        <v>39.85800691341608</v>
+        <v>20.29480104862219</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.615955033049992</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>19.00230062648041</v>
+        <v>9.831310560615195</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.052896149692309</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.321568966527199</v>
       </c>
       <c r="N4">
-        <v>14.27370423022935</v>
+        <v>13.68605234011379</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>17.10646219650797</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.28529701696645</v>
+        <v>11.78205477071827</v>
       </c>
       <c r="C5">
-        <v>15.10283708393139</v>
+        <v>7.54880137285631</v>
       </c>
       <c r="D5">
-        <v>3.022882819419431</v>
+        <v>5.003669882696344</v>
       </c>
       <c r="E5">
-        <v>8.363580791486337</v>
+        <v>7.914867505699018</v>
       </c>
       <c r="F5">
-        <v>39.4285571270235</v>
+        <v>20.22656105520949</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.585683123235145</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>18.65197802712364</v>
+        <v>9.6598082928005</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.034175202898089</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.241808132042662</v>
       </c>
       <c r="N5">
-        <v>14.32692002047316</v>
+        <v>13.73827575449488</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>17.10542702165683</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.21561279020133</v>
+        <v>11.74531004152344</v>
       </c>
       <c r="C6">
-        <v>15.04929117808562</v>
+        <v>7.547553945562728</v>
       </c>
       <c r="D6">
-        <v>3.01890049856164</v>
+        <v>4.998139168883374</v>
       </c>
       <c r="E6">
-        <v>8.34891610290372</v>
+        <v>7.915517926313417</v>
       </c>
       <c r="F6">
-        <v>39.35746909393318</v>
+        <v>20.21544104468199</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.580720860716472</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>18.59344022900589</v>
+        <v>9.63102227571593</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.031100297856879</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.228553680368751</v>
       </c>
       <c r="N6">
-        <v>14.33582811396088</v>
+        <v>13.74699296182361</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>17.10543133993452</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.69642212899173</v>
+        <v>11.9983216919564</v>
       </c>
       <c r="C7">
-        <v>15.41839309664482</v>
+        <v>7.556246609187098</v>
       </c>
       <c r="D7">
-        <v>3.04654437359143</v>
+        <v>5.036345764338638</v>
       </c>
       <c r="E7">
-        <v>8.45081407170683</v>
+        <v>7.911322067175313</v>
       </c>
       <c r="F7">
-        <v>39.8522005227512</v>
+        <v>20.293866573139</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.615542445691911</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>18.99760080271888</v>
+        <v>9.829018315452725</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.052641419800563</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.32049404901954</v>
       </c>
       <c r="N7">
-        <v>14.27441709150905</v>
+        <v>13.68675360197482</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>17.10643636193436</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.74581773860604</v>
+        <v>13.06336021141985</v>
       </c>
       <c r="C8">
-        <v>17.0343580609736</v>
+        <v>7.595450167682856</v>
       </c>
       <c r="D8">
-        <v>3.168361906225429</v>
+        <v>5.200248790934877</v>
       </c>
       <c r="E8">
-        <v>8.902569852095766</v>
+        <v>7.900832667836595</v>
       </c>
       <c r="F8">
-        <v>42.06574053961457</v>
+        <v>20.67070266515381</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.778721394799354</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>20.74138507554282</v>
+        <v>10.65762025668833</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.15252464870045</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.723881512597657</v>
       </c>
       <c r="N8">
-        <v>14.01409868354295</v>
+        <v>13.42741649174669</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>17.13714042019309</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.75849809263677</v>
+        <v>15.07077482875085</v>
       </c>
       <c r="C9">
-        <v>20.00282058664449</v>
+        <v>7.675370266554631</v>
       </c>
       <c r="D9">
-        <v>3.404771589218414</v>
+        <v>5.503265527290634</v>
       </c>
       <c r="E9">
-        <v>9.791729199658361</v>
+        <v>7.910424752974062</v>
       </c>
       <c r="F9">
-        <v>46.50483687216272</v>
+        <v>21.52002266803525</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.134672369928939</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>24.35307309959375</v>
+        <v>12.1184995703112</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.364993366603152</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.49927688709156</v>
       </c>
       <c r="N9">
-        <v>13.54517645894458</v>
+        <v>12.94079092442314</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>17.29788652460384</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.54118958617889</v>
+        <v>16.44729155495471</v>
       </c>
       <c r="C10">
-        <v>22.03472015188708</v>
+        <v>7.735967156904959</v>
       </c>
       <c r="D10">
-        <v>3.575641716341936</v>
+        <v>5.713486319370288</v>
       </c>
       <c r="E10">
-        <v>10.44513075591605</v>
+        <v>7.937058722516602</v>
       </c>
       <c r="F10">
-        <v>49.8268249162282</v>
+        <v>22.21033567022828</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.420170836765407</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>26.81653466853724</v>
+        <v>13.09123609448977</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.530482717113088</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.05378194408615</v>
       </c>
       <c r="N10">
-        <v>13.2300826733391</v>
+        <v>12.59525036196565</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>17.4826388549575</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.76687251636157</v>
+        <v>17.04066251451227</v>
       </c>
       <c r="C11">
-        <v>22.93057832292806</v>
+        <v>7.763951467127423</v>
       </c>
       <c r="D11">
-        <v>3.652575164689884</v>
+        <v>5.806211846704152</v>
       </c>
       <c r="E11">
-        <v>10.74252409747239</v>
+        <v>7.953682166412005</v>
       </c>
       <c r="F11">
-        <v>51.35417608791906</v>
+        <v>22.53844577587698</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.555863877497951</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>27.90051162667193</v>
+        <v>13.51197472787435</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.607644905718753</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.30175232173522</v>
       </c>
       <c r="N11">
-        <v>13.09436930605133</v>
+        <v>12.44033362399432</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>17.5822433434837</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.22570478846357</v>
+        <v>17.26069318454898</v>
       </c>
       <c r="C12">
-        <v>23.26611303818356</v>
+        <v>7.774609451976009</v>
       </c>
       <c r="D12">
-        <v>3.68158435626877</v>
+        <v>5.840891095386967</v>
       </c>
       <c r="E12">
-        <v>10.85520894700459</v>
+        <v>7.960645695720866</v>
       </c>
       <c r="F12">
-        <v>51.9353280702899</v>
+        <v>22.66468352703583</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.60814938253697</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>28.30616497408003</v>
+        <v>13.66818010799041</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.637120894637515</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.39496781232591</v>
       </c>
       <c r="N12">
-        <v>13.04421101464774</v>
+        <v>12.38196940219297</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>17.62228216183811</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.12711468890638</v>
+        <v>17.21351231096496</v>
       </c>
       <c r="C13">
-        <v>23.19400766255281</v>
+        <v>7.77231133937357</v>
       </c>
       <c r="D13">
-        <v>3.675342304441926</v>
+        <v>5.83344183554176</v>
       </c>
       <c r="E13">
-        <v>10.83093612239392</v>
+        <v>7.959115915839229</v>
       </c>
       <c r="F13">
-        <v>51.81003375785483</v>
+        <v>22.63740805751532</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.596847464619416</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>28.21900697526755</v>
+        <v>13.63467698509217</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.630761530943738</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.37492369533469</v>
       </c>
       <c r="N13">
-        <v>13.05495612391688</v>
+        <v>12.39452631675563</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>17.61355457922856</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.80472429262176</v>
+        <v>17.0588577774217</v>
       </c>
       <c r="C14">
-        <v>22.95825482077203</v>
+        <v>7.764827079497151</v>
       </c>
       <c r="D14">
-        <v>3.654964283836962</v>
+        <v>5.809073711799169</v>
       </c>
       <c r="E14">
-        <v>10.75179299673233</v>
+        <v>7.954241544187908</v>
       </c>
       <c r="F14">
-        <v>51.40192885902765</v>
+        <v>22.54879176477133</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.560146941909943</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>27.93397885855</v>
+        <v>13.52488827191888</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.610064854452702</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.30943532391017</v>
       </c>
       <c r="N14">
-        <v>13.09021713714618</v>
+        <v>12.43552612576501</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>17.58549038462379</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.60657510193299</v>
+        <v>16.96352134289742</v>
       </c>
       <c r="C15">
-        <v>22.81337916488538</v>
+        <v>7.760250716427445</v>
       </c>
       <c r="D15">
-        <v>3.642465848398961</v>
+        <v>5.794090575791544</v>
       </c>
       <c r="E15">
-        <v>10.7033263781728</v>
+        <v>7.951343524486987</v>
       </c>
       <c r="F15">
-        <v>51.15233127142535</v>
+        <v>22.49476975441131</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.537786407337414</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>27.75877701190328</v>
+        <v>13.45723371007791</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.597420516411896</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.26923060669012</v>
       </c>
       <c r="N15">
-        <v>13.11198075049081</v>
+        <v>12.46067784662733</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>17.56860490076292</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.4603181665897</v>
+        <v>16.40785752465068</v>
       </c>
       <c r="C16">
-        <v>21.975632462687</v>
+        <v>7.7341467963256</v>
       </c>
       <c r="D16">
-        <v>3.570596989155008</v>
+        <v>5.707366611601425</v>
       </c>
       <c r="E16">
-        <v>10.42570175377345</v>
+        <v>7.936064792991862</v>
       </c>
       <c r="F16">
-        <v>49.72736854579814</v>
+        <v>22.18917328319256</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.411425250560953</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>26.74499307864702</v>
+        <v>13.06330264502774</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.525476613755702</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.03748418452758</v>
       </c>
       <c r="N16">
-        <v>13.23911631082758</v>
+        <v>12.60541794772994</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>17.47644976639563</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.74714523282331</v>
+        <v>16.05860826516925</v>
       </c>
       <c r="C17">
-        <v>21.45466639042085</v>
+        <v>7.718240530801883</v>
       </c>
       <c r="D17">
-        <v>3.526295478553895</v>
+        <v>5.65340818776203</v>
       </c>
       <c r="E17">
-        <v>10.25545095977928</v>
+        <v>7.927860846476281</v>
       </c>
       <c r="F17">
-        <v>48.85760283035203</v>
+        <v>22.0052819904556</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.335438423343454</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>26.11397547813939</v>
+        <v>12.81606993644849</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.481812842585912</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.8941665739993</v>
       </c>
       <c r="N17">
-        <v>13.31915086406139</v>
+        <v>12.69477416766743</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>17.42396113850245</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.3331325579646</v>
+        <v>15.85463752931977</v>
       </c>
       <c r="C18">
-        <v>21.15231475465399</v>
+        <v>7.709130997656814</v>
       </c>
       <c r="D18">
-        <v>3.500739709892019</v>
+        <v>5.622100155905387</v>
       </c>
       <c r="E18">
-        <v>10.15753744343949</v>
+        <v>7.92356521224076</v>
       </c>
       <c r="F18">
-        <v>48.35881989827786</v>
+        <v>21.90084046232467</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.292275774074943</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>25.74754925752022</v>
+        <v>12.67181865710563</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.456876401426308</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.81133510989814</v>
       </c>
       <c r="N18">
-        <v>13.36589243394907</v>
+        <v>12.74638501604206</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>17.39523086100523</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.19228684331035</v>
+        <v>15.7850439528349</v>
       </c>
       <c r="C19">
-        <v>21.04946825758734</v>
+        <v>7.70605340220438</v>
       </c>
       <c r="D19">
-        <v>3.492074507341539</v>
+        <v>5.61145350028044</v>
       </c>
       <c r="E19">
-        <v>10.12438649317939</v>
+        <v>7.922182820344776</v>
       </c>
       <c r="F19">
-        <v>48.19018459135963</v>
+        <v>21.86570748014968</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.277753166785526</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>25.62287316691362</v>
+        <v>12.62262541620264</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.448464322627085</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.78322358700445</v>
       </c>
       <c r="N19">
-        <v>13.38183620177441</v>
+        <v>12.76389738245454</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>17.38575140982766</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.82345534837991</v>
+        <v>16.09610605980884</v>
       </c>
       <c r="C20">
-        <v>21.51040156224403</v>
+        <v>7.719929704723254</v>
       </c>
       <c r="D20">
-        <v>3.531019267420863</v>
+        <v>5.659180486976948</v>
       </c>
       <c r="E20">
-        <v>10.27357315881586</v>
+        <v>7.92869023722608</v>
       </c>
       <c r="F20">
-        <v>48.95003468343487</v>
+        <v>22.02472035582764</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.343470735411442</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>26.1815056934357</v>
+        <v>12.84260034523177</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.486442626315679</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.90946481175781</v>
       </c>
       <c r="N20">
-        <v>13.31055689691968</v>
+        <v>12.68523993308824</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>17.42939694540085</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.89955803445537</v>
+        <v>17.10440977040436</v>
       </c>
       <c r="C21">
-        <v>23.02759835762553</v>
+        <v>7.767023727004932</v>
       </c>
       <c r="D21">
-        <v>3.660953210072983</v>
+        <v>5.816243116592632</v>
       </c>
       <c r="E21">
-        <v>10.77503686538322</v>
+        <v>7.95565495796756</v>
       </c>
       <c r="F21">
-        <v>51.52171920406845</v>
+        <v>22.5747668098285</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.570901712724587</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>28.01782555937201</v>
+        <v>13.55722042107492</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.616137122705893</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.3286899639239</v>
       </c>
       <c r="N21">
-        <v>13.07982540043046</v>
+        <v>12.42347558757423</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>17.59366988710169</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.22575856355694</v>
+        <v>17.73622296763434</v>
       </c>
       <c r="C22">
-        <v>23.99779419195088</v>
+        <v>7.798158106253708</v>
       </c>
       <c r="D22">
-        <v>3.745150499471045</v>
+        <v>5.916357244386608</v>
       </c>
       <c r="E22">
-        <v>11.10321697881044</v>
+        <v>7.977184394923794</v>
       </c>
       <c r="F22">
-        <v>53.21900801683893</v>
+        <v>22.94583401612958</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.724837994453273</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>29.19010384450543</v>
+        <v>14.00609357467458</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.702387986678071</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.59865632567735</v>
       </c>
       <c r="N22">
-        <v>12.93630583619297</v>
+        <v>12.25412872801852</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>17.71459519692568</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.52056684546712</v>
+        <v>17.40148076047391</v>
       </c>
       <c r="C23">
-        <v>23.48179332069633</v>
+        <v>7.781508235230321</v>
       </c>
       <c r="D23">
-        <v>3.700280498404743</v>
+        <v>5.863161338331896</v>
       </c>
       <c r="E23">
-        <v>10.92799649431512</v>
+        <v>7.965329583903174</v>
       </c>
       <c r="F23">
-        <v>52.31141708089413</v>
+        <v>22.74674078794698</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.64216884456534</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>28.56681911557216</v>
+        <v>13.76817939469084</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.656222637170066</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.45495893782438</v>
       </c>
       <c r="N23">
-        <v>13.0121853048519</v>
+        <v>12.34436333139365</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>17.64878737738012</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.7889680387758</v>
+        <v>16.07916322415522</v>
       </c>
       <c r="C24">
-        <v>21.48521256925754</v>
+        <v>7.719165919635733</v>
       </c>
       <c r="D24">
-        <v>3.528883910300387</v>
+        <v>5.656571721998901</v>
       </c>
       <c r="E24">
-        <v>10.26538022172652</v>
+        <v>7.928313960131852</v>
       </c>
       <c r="F24">
-        <v>48.90824235911097</v>
+        <v>22.01592828114324</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.33983770216914</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>26.15098667169913</v>
+        <v>12.83061253247948</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.484348981588608</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.90254983186042</v>
       </c>
       <c r="N24">
-        <v>13.31443996990997</v>
+        <v>12.68954961479317</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>17.42693491906613</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.69542660926997</v>
+        <v>14.53442354071438</v>
       </c>
       <c r="C25">
-        <v>19.2270859751675</v>
+        <v>7.65342200047921</v>
       </c>
       <c r="D25">
-        <v>3.341232394448286</v>
+        <v>5.423390828731507</v>
       </c>
       <c r="E25">
-        <v>9.55111415497281</v>
+        <v>7.904476358317089</v>
       </c>
       <c r="F25">
-        <v>45.2937992560076</v>
+        <v>21.27851485626879</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.034338578783079</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>23.41075741182992</v>
+        <v>11.74094728830188</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.305811364574171</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.29180686864178</v>
       </c>
       <c r="N25">
-        <v>13.6672171510268</v>
+        <v>13.07022704429836</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>17.24307190569081</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.33913074403007</v>
+        <v>12.88963960803372</v>
       </c>
       <c r="C2">
-        <v>7.606277582747293</v>
+        <v>9.976687499281631</v>
       </c>
       <c r="D2">
-        <v>5.243461718381076</v>
+        <v>6.048845672422907</v>
       </c>
       <c r="E2">
-        <v>7.899986836529618</v>
+        <v>12.85754554660048</v>
       </c>
       <c r="F2">
-        <v>20.78029036510274</v>
+        <v>29.05216494537615</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.87107521997978</v>
+        <v>9.279679946302073</v>
       </c>
       <c r="L2">
-        <v>6.180736946079397</v>
+        <v>9.936603969692772</v>
       </c>
       <c r="M2">
-        <v>9.8323522775651</v>
+        <v>14.34080071758721</v>
       </c>
       <c r="N2">
-        <v>13.35868262577684</v>
+        <v>20.61222577438471</v>
       </c>
       <c r="O2">
-        <v>17.15205732558065</v>
+        <v>26.07061801874621</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.52487986171983</v>
+        <v>12.68735875500144</v>
       </c>
       <c r="C3">
-        <v>7.575105835469271</v>
+        <v>9.968956650452613</v>
       </c>
       <c r="D3">
-        <v>5.116772288125151</v>
+        <v>6.005592915366127</v>
       </c>
       <c r="E3">
-        <v>7.904695724569168</v>
+        <v>12.88524249874731</v>
       </c>
       <c r="F3">
-        <v>20.47085236323834</v>
+        <v>29.08328807432049</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,19 +483,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.23958713171475</v>
+        <v>9.125311463440566</v>
       </c>
       <c r="L3">
-        <v>6.100193401941128</v>
+        <v>9.943880510330171</v>
       </c>
       <c r="M3">
-        <v>9.516735847302376</v>
+        <v>14.31423113161551</v>
       </c>
       <c r="N3">
-        <v>13.55972700569845</v>
+        <v>20.67265565931606</v>
       </c>
       <c r="O3">
-        <v>17.11627476959326</v>
+        <v>26.13503928559392</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.00125454255998</v>
+        <v>12.56411785047949</v>
       </c>
       <c r="C4">
-        <v>7.556348786003969</v>
+        <v>9.964333342000804</v>
       </c>
       <c r="D4">
-        <v>5.03679033763748</v>
+        <v>5.978386136169828</v>
       </c>
       <c r="E4">
-        <v>7.911277299279987</v>
+        <v>12.90391149391134</v>
       </c>
       <c r="F4">
-        <v>20.29480104862219</v>
+        <v>29.10890588684179</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,19 +524,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.831310560615195</v>
+        <v>9.030839042329019</v>
       </c>
       <c r="L4">
-        <v>6.052896149692309</v>
+        <v>9.949666414332624</v>
       </c>
       <c r="M4">
-        <v>9.321568966527199</v>
+        <v>14.30005469857685</v>
       </c>
       <c r="N4">
-        <v>13.68605234011379</v>
+        <v>20.7115067768385</v>
       </c>
       <c r="O4">
-        <v>17.10646219650797</v>
+        <v>26.17937452268554</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.78205477071827</v>
+        <v>12.51420271716208</v>
       </c>
       <c r="C5">
-        <v>7.54880137285631</v>
+        <v>9.962480838347759</v>
       </c>
       <c r="D5">
-        <v>5.003669882696344</v>
+        <v>5.967139253591748</v>
       </c>
       <c r="E5">
-        <v>7.914867505699018</v>
+        <v>12.91193771650268</v>
       </c>
       <c r="F5">
-        <v>20.22656105520949</v>
+        <v>29.12098065955844</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.6598082928005</v>
+        <v>8.992468489631881</v>
       </c>
       <c r="L5">
-        <v>6.034175202898089</v>
+        <v>9.952356223714142</v>
       </c>
       <c r="M5">
-        <v>9.241808132042662</v>
+        <v>14.29481970384186</v>
       </c>
       <c r="N5">
-        <v>13.73827575449488</v>
+        <v>20.72777945805703</v>
       </c>
       <c r="O5">
-        <v>17.10542702165683</v>
+        <v>26.19864222747058</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.74531004152344</v>
+        <v>12.50593476250154</v>
       </c>
       <c r="C6">
-        <v>7.547553945562728</v>
+        <v>9.962175150122537</v>
       </c>
       <c r="D6">
-        <v>4.998139168883374</v>
+        <v>5.965262159746192</v>
       </c>
       <c r="E6">
-        <v>7.915517926313417</v>
+        <v>12.91329574662445</v>
       </c>
       <c r="F6">
-        <v>20.21544104468199</v>
+        <v>29.12308438754117</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.63102227571593</v>
+        <v>8.986106261555211</v>
       </c>
       <c r="L6">
-        <v>6.031100297856879</v>
+        <v>9.952822932144295</v>
       </c>
       <c r="M6">
-        <v>9.228553680368751</v>
+        <v>14.29398329926264</v>
       </c>
       <c r="N6">
-        <v>13.74699296182361</v>
+        <v>20.73050816862602</v>
       </c>
       <c r="O6">
-        <v>17.10543133993452</v>
+        <v>26.20191409592297</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.9983216919564</v>
+        <v>12.56344335042476</v>
       </c>
       <c r="C7">
-        <v>7.556246609187098</v>
+        <v>9.964308230174725</v>
       </c>
       <c r="D7">
-        <v>5.036345764338638</v>
+        <v>5.97823509969812</v>
       </c>
       <c r="E7">
-        <v>7.911322067175313</v>
+        <v>12.90401804366376</v>
       </c>
       <c r="F7">
-        <v>20.293866573139</v>
+        <v>29.10906211221668</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.829018315452725</v>
+        <v>9.03032098058512</v>
       </c>
       <c r="L7">
-        <v>6.052641419800563</v>
+        <v>9.949701345059252</v>
       </c>
       <c r="M7">
-        <v>9.32049404901954</v>
+        <v>14.29998189726069</v>
       </c>
       <c r="N7">
-        <v>13.68675360197482</v>
+        <v>20.71172445053245</v>
       </c>
       <c r="O7">
-        <v>17.10643636193436</v>
+        <v>26.17962951379204</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.06336021141985</v>
+        <v>12.81973282656905</v>
       </c>
       <c r="C8">
-        <v>7.595450167682856</v>
+        <v>9.973996568404276</v>
       </c>
       <c r="D8">
-        <v>5.200248790934877</v>
+        <v>6.034068932748896</v>
       </c>
       <c r="E8">
-        <v>7.900832667836595</v>
+        <v>12.86675048919323</v>
       </c>
       <c r="F8">
-        <v>20.67070266515381</v>
+        <v>29.06154489997011</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.65762025668833</v>
+        <v>9.226418906103932</v>
       </c>
       <c r="L8">
-        <v>6.15252464870045</v>
+        <v>9.93883970998168</v>
       </c>
       <c r="M8">
-        <v>9.723881512597657</v>
+        <v>14.33119874132577</v>
       </c>
       <c r="N8">
-        <v>13.42741649174669</v>
+        <v>20.63270018503911</v>
       </c>
       <c r="O8">
-        <v>17.13714042019309</v>
+        <v>26.09183756027815</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.07077482875085</v>
+        <v>13.3270945496728</v>
       </c>
       <c r="C9">
-        <v>7.675370266554631</v>
+        <v>9.993954380967484</v>
       </c>
       <c r="D9">
-        <v>5.503265527290634</v>
+        <v>6.13826038634759</v>
       </c>
       <c r="E9">
-        <v>7.910424752974062</v>
+        <v>12.80685058397548</v>
       </c>
       <c r="F9">
-        <v>21.52002266803525</v>
+        <v>29.02003287431345</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.1184995703112</v>
+        <v>9.611278558716329</v>
       </c>
       <c r="L9">
-        <v>6.364993366603152</v>
+        <v>9.927971913374147</v>
       </c>
       <c r="M9">
-        <v>10.49927688709156</v>
+        <v>14.40916008754214</v>
       </c>
       <c r="N9">
-        <v>12.94079092442314</v>
+        <v>20.49153649116023</v>
       </c>
       <c r="O9">
-        <v>17.29788652460384</v>
+        <v>25.95766272524025</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.44729155495471</v>
+        <v>13.69902152920693</v>
       </c>
       <c r="C10">
-        <v>7.735967156904959</v>
+        <v>10.00917540615244</v>
       </c>
       <c r="D10">
-        <v>5.713486319370288</v>
+        <v>6.211389967608484</v>
       </c>
       <c r="E10">
-        <v>7.937058722516602</v>
+        <v>12.77085983818215</v>
       </c>
       <c r="F10">
-        <v>22.21033567022828</v>
+        <v>29.021039377737</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.09123609448977</v>
+        <v>9.891413959447711</v>
       </c>
       <c r="L10">
-        <v>6.530482717113088</v>
+        <v>9.926308670798612</v>
       </c>
       <c r="M10">
-        <v>11.05378194408615</v>
+        <v>14.47633927577535</v>
       </c>
       <c r="N10">
-        <v>12.59525036196565</v>
+        <v>20.3961547583261</v>
       </c>
       <c r="O10">
-        <v>17.4826388549575</v>
+        <v>25.8823112019524</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.04066251451227</v>
+        <v>13.86727499664404</v>
       </c>
       <c r="C11">
-        <v>7.763951467127423</v>
+        <v>10.01621531379808</v>
       </c>
       <c r="D11">
-        <v>5.806211846704152</v>
+        <v>6.243876626081969</v>
       </c>
       <c r="E11">
-        <v>7.953682166412005</v>
+        <v>12.7562235385617</v>
       </c>
       <c r="F11">
-        <v>22.53844577587698</v>
+        <v>29.02832593483103</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.51197472787435</v>
+        <v>10.01771776489023</v>
       </c>
       <c r="L11">
-        <v>6.607644905718753</v>
+        <v>9.926915129298822</v>
       </c>
       <c r="M11">
-        <v>11.30175232173522</v>
+        <v>14.50897808471901</v>
       </c>
       <c r="N11">
-        <v>12.44033362399432</v>
+        <v>20.35455442222795</v>
       </c>
       <c r="O11">
-        <v>17.5822433434837</v>
+        <v>25.85308767151032</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.26069318454898</v>
+        <v>13.93079220390267</v>
       </c>
       <c r="C12">
-        <v>7.774609451976009</v>
+        <v>10.01889727425264</v>
       </c>
       <c r="D12">
-        <v>5.840891095386967</v>
+        <v>6.256062959058224</v>
       </c>
       <c r="E12">
-        <v>7.960645695720866</v>
+        <v>12.75093043620079</v>
       </c>
       <c r="F12">
-        <v>22.66468352703583</v>
+        <v>29.03206479633539</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.66818010799041</v>
+        <v>10.06533809156038</v>
       </c>
       <c r="L12">
-        <v>6.637120894637515</v>
+        <v>9.92733984248283</v>
       </c>
       <c r="M12">
-        <v>11.39496781232591</v>
+        <v>14.52162974193787</v>
       </c>
       <c r="N12">
-        <v>12.38196940219297</v>
+        <v>20.33905744786917</v>
       </c>
       <c r="O12">
-        <v>17.62228216183811</v>
+        <v>25.84274903646164</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.21351231096496</v>
+        <v>13.91712234487892</v>
       </c>
       <c r="C13">
-        <v>7.77231133937357</v>
+        <v>10.01831895883504</v>
       </c>
       <c r="D13">
-        <v>5.83344183554176</v>
+        <v>6.253443612382474</v>
       </c>
       <c r="E13">
-        <v>7.959115915839229</v>
+        <v>12.75205931570897</v>
       </c>
       <c r="F13">
-        <v>22.63740805751532</v>
+        <v>29.03121604295854</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.63467698509217</v>
+        <v>10.05509216381075</v>
       </c>
       <c r="L13">
-        <v>6.630761530943738</v>
+        <v>9.927239713440995</v>
       </c>
       <c r="M13">
-        <v>11.37492369533469</v>
+        <v>14.51889210489461</v>
       </c>
       <c r="N13">
-        <v>12.39452631675563</v>
+        <v>20.34238362318643</v>
       </c>
       <c r="O13">
-        <v>17.61355457922856</v>
+        <v>25.84494327030225</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.0588577774217</v>
+        <v>13.87250488374646</v>
       </c>
       <c r="C14">
-        <v>7.764827079497151</v>
+        <v>10.01643564079572</v>
       </c>
       <c r="D14">
-        <v>5.809073711799169</v>
+        <v>6.244881540530302</v>
       </c>
       <c r="E14">
-        <v>7.954241544187908</v>
+        <v>12.75578307634694</v>
       </c>
       <c r="F14">
-        <v>22.54879176477133</v>
+        <v>29.02861391667388</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.52488827191888</v>
+        <v>10.02163994347132</v>
       </c>
       <c r="L14">
-        <v>6.610064854452702</v>
+        <v>9.926946167106424</v>
       </c>
       <c r="M14">
-        <v>11.30943532391017</v>
+        <v>14.51001313151979</v>
       </c>
       <c r="N14">
-        <v>12.43552612576501</v>
+        <v>20.35327434921377</v>
       </c>
       <c r="O14">
-        <v>17.58549038462379</v>
+        <v>25.8522225174665</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.96352134289742</v>
+        <v>13.84514798691633</v>
       </c>
       <c r="C15">
-        <v>7.760250716427445</v>
+        <v>10.01528413442727</v>
       </c>
       <c r="D15">
-        <v>5.794090575791544</v>
+        <v>6.239621860829484</v>
       </c>
       <c r="E15">
-        <v>7.951343524486987</v>
+        <v>12.75809645035616</v>
       </c>
       <c r="F15">
-        <v>22.49476975441131</v>
+        <v>29.02714752961196</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.45723371007791</v>
+        <v>10.00112106539752</v>
       </c>
       <c r="L15">
-        <v>6.597420516411896</v>
+        <v>9.926791734697114</v>
       </c>
       <c r="M15">
-        <v>11.26923060669012</v>
+        <v>14.50461232820576</v>
       </c>
       <c r="N15">
-        <v>12.46067784662733</v>
+        <v>20.35997856098112</v>
       </c>
       <c r="O15">
-        <v>17.56860490076292</v>
+        <v>25.85677605567253</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.40785752465068</v>
+        <v>13.68800155251715</v>
       </c>
       <c r="C16">
-        <v>7.7341467963256</v>
+        <v>10.00871761468968</v>
       </c>
       <c r="D16">
-        <v>5.707366611601425</v>
+        <v>6.209250889392368</v>
       </c>
       <c r="E16">
-        <v>7.936064792991862</v>
+        <v>12.77185126393949</v>
       </c>
       <c r="F16">
-        <v>22.18917328319256</v>
+        <v>29.02070041008113</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.06330264502774</v>
+        <v>9.88313300834214</v>
       </c>
       <c r="L16">
-        <v>6.525476613755702</v>
+        <v>9.926296386572323</v>
       </c>
       <c r="M16">
-        <v>11.03748418452758</v>
+        <v>14.47424750179616</v>
       </c>
       <c r="N16">
-        <v>12.60541794772994</v>
+        <v>20.39890934659038</v>
       </c>
       <c r="O16">
-        <v>17.47644976639563</v>
+        <v>25.88432281238601</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.05860826516925</v>
+        <v>13.59131230068103</v>
       </c>
       <c r="C17">
-        <v>7.718240530801883</v>
+        <v>10.00471853392096</v>
       </c>
       <c r="D17">
-        <v>5.65340818776203</v>
+        <v>6.190416943551803</v>
       </c>
       <c r="E17">
-        <v>7.927860846476281</v>
+        <v>12.78073384018858</v>
       </c>
       <c r="F17">
-        <v>22.0052819904556</v>
+        <v>29.0184928584344</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.81606993644849</v>
+        <v>9.810428399996345</v>
       </c>
       <c r="L17">
-        <v>6.481812842585912</v>
+        <v>9.926340972557551</v>
       </c>
       <c r="M17">
-        <v>10.8941665739993</v>
+        <v>14.45614728170185</v>
       </c>
       <c r="N17">
-        <v>12.69477416766743</v>
+        <v>20.42324959729114</v>
       </c>
       <c r="O17">
-        <v>17.42396113850245</v>
+        <v>25.90251705332294</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.85463752931977</v>
+        <v>13.53561446832655</v>
       </c>
       <c r="C18">
-        <v>7.709130997656814</v>
+        <v>10.00242930009708</v>
       </c>
       <c r="D18">
-        <v>5.622100155905387</v>
+        <v>6.179510907631435</v>
       </c>
       <c r="E18">
-        <v>7.92356521224076</v>
+        <v>12.78600628945225</v>
       </c>
       <c r="F18">
-        <v>21.90084046232467</v>
+        <v>29.01786606940164</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.67181865710563</v>
+        <v>9.768506757408129</v>
       </c>
       <c r="L18">
-        <v>6.456876401426308</v>
+        <v>9.926494977936068</v>
       </c>
       <c r="M18">
-        <v>10.81133510989814</v>
+        <v>14.44593259868132</v>
       </c>
       <c r="N18">
-        <v>12.74638501604206</v>
+        <v>20.43741794912275</v>
       </c>
       <c r="O18">
-        <v>17.39523086100523</v>
+        <v>25.9134575870595</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.7850439528349</v>
+        <v>13.51674351047339</v>
       </c>
       <c r="C19">
-        <v>7.70605340220438</v>
+        <v>10.00165609904</v>
       </c>
       <c r="D19">
-        <v>5.61145350028044</v>
+        <v>6.175805836776846</v>
       </c>
       <c r="E19">
-        <v>7.922182820344776</v>
+        <v>12.78781952756699</v>
       </c>
       <c r="F19">
-        <v>21.86570748014968</v>
+        <v>29.01776433418555</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.62262541620264</v>
+        <v>9.754296389315057</v>
       </c>
       <c r="L19">
-        <v>6.448464322627085</v>
+        <v>9.926569195225307</v>
       </c>
       <c r="M19">
-        <v>10.78322358700445</v>
+        <v>14.44250796396719</v>
       </c>
       <c r="N19">
-        <v>12.76389738245454</v>
+        <v>20.44224408135466</v>
       </c>
       <c r="O19">
-        <v>17.38575140982766</v>
+        <v>25.91724353396012</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.09610605980884</v>
+        <v>13.60161426178778</v>
       </c>
       <c r="C20">
-        <v>7.719929704723254</v>
+        <v>10.00514311547727</v>
       </c>
       <c r="D20">
-        <v>5.659180486976948</v>
+        <v>6.192429455323825</v>
       </c>
       <c r="E20">
-        <v>7.92869023722608</v>
+        <v>12.77977136287031</v>
       </c>
       <c r="F20">
-        <v>22.02472035582764</v>
+        <v>29.01866132932367</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.84260034523177</v>
+        <v>9.818179016577126</v>
       </c>
       <c r="L20">
-        <v>6.486442626315679</v>
+        <v>9.926322948081367</v>
       </c>
       <c r="M20">
-        <v>10.90946481175781</v>
+        <v>14.4580538356476</v>
       </c>
       <c r="N20">
-        <v>12.68523993308824</v>
+        <v>20.42064110684913</v>
       </c>
       <c r="O20">
-        <v>17.42939694540085</v>
+        <v>25.90053100649056</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.10440977040436</v>
+        <v>13.88561593346206</v>
       </c>
       <c r="C21">
-        <v>7.767023727004932</v>
+        <v>10.01698838441084</v>
       </c>
       <c r="D21">
-        <v>5.816243116592632</v>
+        <v>6.247399594691681</v>
       </c>
       <c r="E21">
-        <v>7.95565495796756</v>
+        <v>12.75468255286407</v>
       </c>
       <c r="F21">
-        <v>22.5747668098285</v>
+        <v>29.02935166058636</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.55722042107492</v>
+        <v>10.03147167397614</v>
       </c>
       <c r="L21">
-        <v>6.616137122705893</v>
+        <v>9.927027102828799</v>
       </c>
       <c r="M21">
-        <v>11.3286899639239</v>
+        <v>14.51261323137925</v>
       </c>
       <c r="N21">
-        <v>12.42347558757423</v>
+        <v>20.35006853553772</v>
       </c>
       <c r="O21">
-        <v>17.59366988710169</v>
+        <v>25.85006467080281</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.73622296763434</v>
+        <v>14.07005385657072</v>
       </c>
       <c r="C22">
-        <v>7.798158106253708</v>
+        <v>10.02482353779251</v>
       </c>
       <c r="D22">
-        <v>5.916357244386608</v>
+        <v>6.282650053612063</v>
       </c>
       <c r="E22">
-        <v>7.977184394923794</v>
+        <v>12.73973879542503</v>
       </c>
       <c r="F22">
-        <v>22.94583401612958</v>
+        <v>29.04204665919802</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.00609357467458</v>
+        <v>10.16963768517806</v>
       </c>
       <c r="L22">
-        <v>6.702387986678071</v>
+        <v>9.928623776861663</v>
       </c>
       <c r="M22">
-        <v>11.59865632567735</v>
+        <v>14.54996982768572</v>
       </c>
       <c r="N22">
-        <v>12.25412872801852</v>
+        <v>20.30543792004244</v>
       </c>
       <c r="O22">
-        <v>17.71459519692568</v>
+        <v>25.82132378295466</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.40148076047391</v>
+        <v>13.97174303331895</v>
       </c>
       <c r="C23">
-        <v>7.781508235230321</v>
+        <v>10.0206333889794</v>
       </c>
       <c r="D23">
-        <v>5.863161338331896</v>
+        <v>6.263899169006613</v>
       </c>
       <c r="E23">
-        <v>7.965329583903174</v>
+        <v>12.74758169317035</v>
       </c>
       <c r="F23">
-        <v>22.74674078794698</v>
+        <v>29.0347497628095</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.76817939469084</v>
+        <v>10.09602320546048</v>
       </c>
       <c r="L23">
-        <v>6.656222637170066</v>
+        <v>9.927667947914095</v>
       </c>
       <c r="M23">
-        <v>11.45495893782438</v>
+        <v>14.52987881043382</v>
       </c>
       <c r="N23">
-        <v>12.34436333139365</v>
+        <v>20.32912191275486</v>
       </c>
       <c r="O23">
-        <v>17.64878737738012</v>
+        <v>25.83627496251946</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.07916322415522</v>
+        <v>13.59695708272407</v>
       </c>
       <c r="C24">
-        <v>7.719165919635733</v>
+        <v>10.00495113131033</v>
       </c>
       <c r="D24">
-        <v>5.656571721998901</v>
+        <v>6.191519841906291</v>
       </c>
       <c r="E24">
-        <v>7.928313960131852</v>
+        <v>12.78020598259297</v>
       </c>
       <c r="F24">
-        <v>22.01592828114324</v>
+        <v>29.01858316255045</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.83061253247948</v>
+        <v>9.814675341808032</v>
       </c>
       <c r="L24">
-        <v>6.484348981588608</v>
+        <v>9.926330697013231</v>
       </c>
       <c r="M24">
-        <v>10.90254983186042</v>
+        <v>14.45719128598016</v>
       </c>
       <c r="N24">
-        <v>12.68954961479317</v>
+        <v>20.42181986073427</v>
       </c>
       <c r="O24">
-        <v>17.42693491906613</v>
+        <v>25.90142740183839</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.53442354071438</v>
+        <v>13.18971984047837</v>
       </c>
       <c r="C25">
-        <v>7.65342200047921</v>
+        <v>9.988455321295408</v>
       </c>
       <c r="D25">
-        <v>5.423390828731507</v>
+        <v>6.110660836300553</v>
       </c>
       <c r="E25">
-        <v>7.904476358317089</v>
+        <v>12.82164571916699</v>
       </c>
       <c r="F25">
-        <v>21.27851485626879</v>
+        <v>29.02572806820231</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.74094728830188</v>
+        <v>9.507425693058201</v>
       </c>
       <c r="L25">
-        <v>6.305811364574171</v>
+        <v>9.92979879955856</v>
       </c>
       <c r="M25">
-        <v>10.29180686864178</v>
+        <v>14.3863070898689</v>
       </c>
       <c r="N25">
-        <v>13.07022704429836</v>
+        <v>20.52825598553969</v>
       </c>
       <c r="O25">
-        <v>17.24307190569081</v>
+        <v>25.989886235806</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.88963960803372</v>
+        <v>13.33913074403006</v>
       </c>
       <c r="C2">
-        <v>9.976687499281631</v>
+        <v>7.606277582747431</v>
       </c>
       <c r="D2">
-        <v>6.048845672422907</v>
+        <v>5.243461718381029</v>
       </c>
       <c r="E2">
-        <v>12.85754554660048</v>
+        <v>7.899986836529665</v>
       </c>
       <c r="F2">
-        <v>29.05216494537615</v>
+        <v>20.78029036510259</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.279679946302073</v>
+        <v>10.87107521997978</v>
       </c>
       <c r="L2">
-        <v>9.936603969692772</v>
+        <v>6.180736946079397</v>
       </c>
       <c r="M2">
-        <v>14.34080071758721</v>
+        <v>9.83235227756507</v>
       </c>
       <c r="N2">
-        <v>20.61222577438471</v>
+        <v>13.35868262577674</v>
       </c>
       <c r="O2">
-        <v>26.07061801874621</v>
+        <v>17.1520573255805</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.68735875500144</v>
+        <v>12.52487986171983</v>
       </c>
       <c r="C3">
-        <v>9.968956650452613</v>
+        <v>7.575105835469271</v>
       </c>
       <c r="D3">
-        <v>6.005592915366127</v>
+        <v>5.116772288125264</v>
       </c>
       <c r="E3">
-        <v>12.88524249874731</v>
+        <v>7.904695724569165</v>
       </c>
       <c r="F3">
-        <v>29.08328807432049</v>
+        <v>20.47085236323828</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,19 +483,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.125311463440566</v>
+        <v>10.23958713171476</v>
       </c>
       <c r="L3">
-        <v>9.943880510330171</v>
+        <v>6.100193401941127</v>
       </c>
       <c r="M3">
-        <v>14.31423113161551</v>
+        <v>9.516735847302376</v>
       </c>
       <c r="N3">
-        <v>20.67265565931606</v>
+        <v>13.55972700569845</v>
       </c>
       <c r="O3">
-        <v>26.13503928559392</v>
+        <v>17.11627476959326</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.56411785047949</v>
+        <v>12.00125454255995</v>
       </c>
       <c r="C4">
-        <v>9.964333342000804</v>
+        <v>7.556348786004106</v>
       </c>
       <c r="D4">
-        <v>5.978386136169828</v>
+        <v>5.036790337637656</v>
       </c>
       <c r="E4">
-        <v>12.90391149391134</v>
+        <v>7.911277299280036</v>
       </c>
       <c r="F4">
-        <v>29.10890588684179</v>
+        <v>20.29480104862202</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,19 +524,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.030839042329019</v>
+        <v>9.831310560615263</v>
       </c>
       <c r="L4">
-        <v>9.949666414332624</v>
+        <v>6.052896149692254</v>
       </c>
       <c r="M4">
-        <v>14.30005469857685</v>
+        <v>9.321568966527199</v>
       </c>
       <c r="N4">
-        <v>20.7115067768385</v>
+        <v>13.68605234011379</v>
       </c>
       <c r="O4">
-        <v>26.17937452268554</v>
+        <v>17.10646219650788</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.51420271716208</v>
+        <v>11.78205477071828</v>
       </c>
       <c r="C5">
-        <v>9.962480838347759</v>
+        <v>7.548801372856305</v>
       </c>
       <c r="D5">
-        <v>5.967139253591748</v>
+        <v>5.003669882696451</v>
       </c>
       <c r="E5">
-        <v>12.91193771650268</v>
+        <v>7.914867505699198</v>
       </c>
       <c r="F5">
-        <v>29.12098065955844</v>
+        <v>20.22656105520931</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.992468489631881</v>
+        <v>9.65980829280049</v>
       </c>
       <c r="L5">
-        <v>9.952356223714142</v>
+        <v>6.03417520289817</v>
       </c>
       <c r="M5">
-        <v>14.29481970384186</v>
+        <v>9.241808132042705</v>
       </c>
       <c r="N5">
-        <v>20.72777945805703</v>
+        <v>13.73827575449475</v>
       </c>
       <c r="O5">
-        <v>26.19864222747058</v>
+        <v>17.10542702165671</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.50593476250154</v>
+        <v>11.74531004152348</v>
       </c>
       <c r="C6">
-        <v>9.962175150122537</v>
+        <v>7.547553945562864</v>
       </c>
       <c r="D6">
-        <v>5.965262159746192</v>
+        <v>4.998139168883316</v>
       </c>
       <c r="E6">
-        <v>12.91329574662445</v>
+        <v>7.91551792631347</v>
       </c>
       <c r="F6">
-        <v>29.12308438754117</v>
+        <v>20.21544104468202</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.986106261555211</v>
+        <v>9.631022275715912</v>
       </c>
       <c r="L6">
-        <v>9.952822932144295</v>
+        <v>6.031100297856877</v>
       </c>
       <c r="M6">
-        <v>14.29398329926264</v>
+        <v>9.228553680368792</v>
       </c>
       <c r="N6">
-        <v>20.73050816862602</v>
+        <v>13.74699296182364</v>
       </c>
       <c r="O6">
-        <v>26.20191409592297</v>
+        <v>17.10543133993459</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.56344335042476</v>
+        <v>11.99832169195641</v>
       </c>
       <c r="C7">
-        <v>9.964308230174725</v>
+        <v>7.556246609187229</v>
       </c>
       <c r="D7">
-        <v>5.97823509969812</v>
+        <v>5.036345764338692</v>
       </c>
       <c r="E7">
-        <v>12.90401804366376</v>
+        <v>7.91132206717537</v>
       </c>
       <c r="F7">
-        <v>29.10906211221668</v>
+        <v>20.29386657313887</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.03032098058512</v>
+        <v>9.829018315452764</v>
       </c>
       <c r="L7">
-        <v>9.949701345059252</v>
+        <v>6.052641419800567</v>
       </c>
       <c r="M7">
-        <v>14.29998189726069</v>
+        <v>9.320494049019544</v>
       </c>
       <c r="N7">
-        <v>20.71172445053245</v>
+        <v>13.68675360197478</v>
       </c>
       <c r="O7">
-        <v>26.17962951379204</v>
+        <v>17.10643636193432</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.81973282656905</v>
+        <v>13.06336021141983</v>
       </c>
       <c r="C8">
-        <v>9.973996568404276</v>
+        <v>7.595450167682731</v>
       </c>
       <c r="D8">
-        <v>6.034068932748896</v>
+        <v>5.200248790934868</v>
       </c>
       <c r="E8">
-        <v>12.86675048919323</v>
+        <v>7.900832667836756</v>
       </c>
       <c r="F8">
-        <v>29.06154489997011</v>
+        <v>20.67070266515369</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.226418906103932</v>
+        <v>10.65762025668838</v>
       </c>
       <c r="L8">
-        <v>9.93883970998168</v>
+        <v>6.152524648700567</v>
       </c>
       <c r="M8">
-        <v>14.33119874132577</v>
+        <v>9.723881512597654</v>
       </c>
       <c r="N8">
-        <v>20.63270018503911</v>
+        <v>13.42741649174669</v>
       </c>
       <c r="O8">
-        <v>26.09183756027815</v>
+        <v>17.137140420193</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.3270945496728</v>
+        <v>15.07077482875081</v>
       </c>
       <c r="C9">
-        <v>9.993954380967484</v>
+        <v>7.67537026655476</v>
       </c>
       <c r="D9">
-        <v>6.13826038634759</v>
+        <v>5.503265527290576</v>
       </c>
       <c r="E9">
-        <v>12.80685058397548</v>
+        <v>7.910424752974015</v>
       </c>
       <c r="F9">
-        <v>29.02003287431345</v>
+        <v>21.52002266803539</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.611278558716329</v>
+        <v>12.11849957031119</v>
       </c>
       <c r="L9">
-        <v>9.927971913374147</v>
+        <v>6.364993366603112</v>
       </c>
       <c r="M9">
-        <v>14.40916008754214</v>
+        <v>10.49927688709157</v>
       </c>
       <c r="N9">
-        <v>20.49153649116023</v>
+        <v>12.94079092442317</v>
       </c>
       <c r="O9">
-        <v>25.95766272524025</v>
+        <v>17.29788652460393</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.69902152920693</v>
+        <v>16.44729155495469</v>
       </c>
       <c r="C10">
-        <v>10.00917540615244</v>
+        <v>7.735967156905345</v>
       </c>
       <c r="D10">
-        <v>6.211389967608484</v>
+        <v>5.713486319370189</v>
       </c>
       <c r="E10">
-        <v>12.77085983818215</v>
+        <v>7.937058722516699</v>
       </c>
       <c r="F10">
-        <v>29.021039377737</v>
+        <v>22.21033567022821</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.891413959447711</v>
+        <v>13.09123609448983</v>
       </c>
       <c r="L10">
-        <v>9.926308670798612</v>
+        <v>6.530482717113077</v>
       </c>
       <c r="M10">
-        <v>14.47633927577535</v>
+        <v>11.05378194408613</v>
       </c>
       <c r="N10">
-        <v>20.3961547583261</v>
+        <v>12.59525036196565</v>
       </c>
       <c r="O10">
-        <v>25.8823112019524</v>
+        <v>17.48263885495741</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.86727499664404</v>
+        <v>17.04066251451229</v>
       </c>
       <c r="C11">
-        <v>10.01621531379808</v>
+        <v>7.763951467127443</v>
       </c>
       <c r="D11">
-        <v>6.243876626081969</v>
+        <v>5.806211846704152</v>
       </c>
       <c r="E11">
-        <v>12.7562235385617</v>
+        <v>7.953682166412046</v>
       </c>
       <c r="F11">
-        <v>29.02832593483103</v>
+        <v>22.53844577587695</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.01771776489023</v>
+        <v>13.51197472787438</v>
       </c>
       <c r="L11">
-        <v>9.926915129298822</v>
+        <v>6.607644905718771</v>
       </c>
       <c r="M11">
-        <v>14.50897808471901</v>
+        <v>11.30175232173521</v>
       </c>
       <c r="N11">
-        <v>20.35455442222795</v>
+        <v>12.44033362399435</v>
       </c>
       <c r="O11">
-        <v>25.85308767151032</v>
+        <v>17.58224334348368</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.93079220390267</v>
+        <v>17.26069318454903</v>
       </c>
       <c r="C12">
-        <v>10.01889727425264</v>
+        <v>7.774609451976011</v>
       </c>
       <c r="D12">
-        <v>6.256062959058224</v>
+        <v>5.840891095387029</v>
       </c>
       <c r="E12">
-        <v>12.75093043620079</v>
+        <v>7.960645695720863</v>
       </c>
       <c r="F12">
-        <v>29.03206479633539</v>
+        <v>22.66468352703569</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.06533809156038</v>
+        <v>13.66818010799047</v>
       </c>
       <c r="L12">
-        <v>9.92733984248283</v>
+        <v>6.637120894637512</v>
       </c>
       <c r="M12">
-        <v>14.52162974193787</v>
+        <v>11.39496781232588</v>
       </c>
       <c r="N12">
-        <v>20.33905744786917</v>
+        <v>12.38196940219288</v>
       </c>
       <c r="O12">
-        <v>25.84274903646164</v>
+        <v>17.62228216183795</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.91712234487892</v>
+        <v>17.21351231096491</v>
       </c>
       <c r="C13">
-        <v>10.01831895883504</v>
+        <v>7.772311339373688</v>
       </c>
       <c r="D13">
-        <v>6.253443612382474</v>
+        <v>5.833441835541862</v>
       </c>
       <c r="E13">
-        <v>12.75205931570897</v>
+        <v>7.959115915839339</v>
       </c>
       <c r="F13">
-        <v>29.03121604295854</v>
+        <v>22.63740805751529</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.05509216381075</v>
+        <v>13.63467698509216</v>
       </c>
       <c r="L13">
-        <v>9.927239713440995</v>
+        <v>6.630761530943757</v>
       </c>
       <c r="M13">
-        <v>14.51889210489461</v>
+        <v>11.37492369533472</v>
       </c>
       <c r="N13">
-        <v>20.34238362318643</v>
+        <v>12.39452631675566</v>
       </c>
       <c r="O13">
-        <v>25.84494327030225</v>
+        <v>17.61355457922856</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.87250488374646</v>
+        <v>17.05885777742171</v>
       </c>
       <c r="C14">
-        <v>10.01643564079572</v>
+        <v>7.764827079497138</v>
       </c>
       <c r="D14">
-        <v>6.244881540530302</v>
+        <v>5.80907371179906</v>
       </c>
       <c r="E14">
-        <v>12.75578307634694</v>
+        <v>7.954241544187971</v>
       </c>
       <c r="F14">
-        <v>29.02861391667388</v>
+        <v>22.54879176477126</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.02163994347132</v>
+        <v>13.5248882719189</v>
       </c>
       <c r="L14">
-        <v>9.926946167106424</v>
+        <v>6.610064854452722</v>
       </c>
       <c r="M14">
-        <v>14.51001313151979</v>
+        <v>11.30943532391016</v>
       </c>
       <c r="N14">
-        <v>20.35327434921377</v>
+        <v>12.43552612576501</v>
       </c>
       <c r="O14">
-        <v>25.8522225174665</v>
+        <v>17.58549038462371</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.84514798691633</v>
+        <v>16.96352134289738</v>
       </c>
       <c r="C15">
-        <v>10.01528413442727</v>
+        <v>7.760250716427568</v>
       </c>
       <c r="D15">
-        <v>6.239621860829484</v>
+        <v>5.794090575791544</v>
       </c>
       <c r="E15">
-        <v>12.75809645035616</v>
+        <v>7.951343524486994</v>
       </c>
       <c r="F15">
-        <v>29.02714752961196</v>
+        <v>22.49476975441126</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.00112106539752</v>
+        <v>13.4572337100779</v>
       </c>
       <c r="L15">
-        <v>9.926791734697114</v>
+        <v>6.597420516411878</v>
       </c>
       <c r="M15">
-        <v>14.50461232820576</v>
+        <v>11.26923060669013</v>
       </c>
       <c r="N15">
-        <v>20.35997856098112</v>
+        <v>12.46067784662727</v>
       </c>
       <c r="O15">
-        <v>25.85677605567253</v>
+        <v>17.56860490076286</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.68800155251715</v>
+        <v>16.40785752465072</v>
       </c>
       <c r="C16">
-        <v>10.00871761468968</v>
+        <v>7.734146796325601</v>
       </c>
       <c r="D16">
-        <v>6.209250889392368</v>
+        <v>5.707366611601363</v>
       </c>
       <c r="E16">
-        <v>12.77185126393949</v>
+        <v>7.936064792991919</v>
       </c>
       <c r="F16">
-        <v>29.02070041008113</v>
+        <v>22.18917328319246</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.88313300834214</v>
+        <v>13.06330264502781</v>
       </c>
       <c r="L16">
-        <v>9.926296386572323</v>
+        <v>6.525476613755665</v>
       </c>
       <c r="M16">
-        <v>14.47424750179616</v>
+        <v>11.03748418452756</v>
       </c>
       <c r="N16">
-        <v>20.39890934659038</v>
+        <v>12.60541794772994</v>
       </c>
       <c r="O16">
-        <v>25.88432281238601</v>
+        <v>17.47644976639553</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.59131230068103</v>
+        <v>16.05860826516931</v>
       </c>
       <c r="C17">
-        <v>10.00471853392096</v>
+        <v>7.718240530801877</v>
       </c>
       <c r="D17">
-        <v>6.190416943551803</v>
+        <v>5.65340818776202</v>
       </c>
       <c r="E17">
-        <v>12.78073384018858</v>
+        <v>7.927860846476229</v>
       </c>
       <c r="F17">
-        <v>29.0184928584344</v>
+        <v>22.00528199045567</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.810428399996345</v>
+        <v>12.81606993644849</v>
       </c>
       <c r="L17">
-        <v>9.926340972557551</v>
+        <v>6.481812842585875</v>
       </c>
       <c r="M17">
-        <v>14.45614728170185</v>
+        <v>10.89416657399928</v>
       </c>
       <c r="N17">
-        <v>20.42324959729114</v>
+        <v>12.69477416766753</v>
       </c>
       <c r="O17">
-        <v>25.90251705332294</v>
+        <v>17.42396113850252</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.53561446832655</v>
+        <v>15.85463752931969</v>
       </c>
       <c r="C18">
-        <v>10.00242930009708</v>
+        <v>7.709130997656935</v>
       </c>
       <c r="D18">
-        <v>6.179510907631435</v>
+        <v>5.622100155905445</v>
       </c>
       <c r="E18">
-        <v>12.78600628945225</v>
+        <v>7.923565212240807</v>
       </c>
       <c r="F18">
-        <v>29.01786606940164</v>
+        <v>21.90084046232482</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.768506757408129</v>
+        <v>12.67181865710558</v>
       </c>
       <c r="L18">
-        <v>9.926494977936068</v>
+        <v>6.456876401426276</v>
       </c>
       <c r="M18">
-        <v>14.44593259868132</v>
+        <v>10.81133510989817</v>
       </c>
       <c r="N18">
-        <v>20.43741794912275</v>
+        <v>12.74638501604219</v>
       </c>
       <c r="O18">
-        <v>25.9134575870595</v>
+        <v>17.39523086100543</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.51674351047339</v>
+        <v>15.78504395283494</v>
       </c>
       <c r="C19">
-        <v>10.00165609904</v>
+        <v>7.706053402204491</v>
       </c>
       <c r="D19">
-        <v>6.175805836776846</v>
+        <v>5.611453500280598</v>
       </c>
       <c r="E19">
-        <v>12.78781952756699</v>
+        <v>7.9221828203449</v>
       </c>
       <c r="F19">
-        <v>29.01776433418555</v>
+        <v>21.86570748014964</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.754296389315057</v>
+        <v>12.62262541620271</v>
       </c>
       <c r="L19">
-        <v>9.926569195225307</v>
+        <v>6.448464322627109</v>
       </c>
       <c r="M19">
-        <v>14.44250796396719</v>
+        <v>10.78322358700447</v>
       </c>
       <c r="N19">
-        <v>20.44224408135466</v>
+        <v>12.76389738245457</v>
       </c>
       <c r="O19">
-        <v>25.91724353396012</v>
+        <v>17.38575140982763</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.60161426178778</v>
+        <v>16.09610605980885</v>
       </c>
       <c r="C20">
-        <v>10.00514311547727</v>
+        <v>7.719929704723139</v>
       </c>
       <c r="D20">
-        <v>6.192429455323825</v>
+        <v>5.659180486976958</v>
       </c>
       <c r="E20">
-        <v>12.77977136287031</v>
+        <v>7.928690237226073</v>
       </c>
       <c r="F20">
-        <v>29.01866132932367</v>
+        <v>22.02472035582761</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.818179016577126</v>
+        <v>12.84260034523179</v>
       </c>
       <c r="L20">
-        <v>9.926322948081367</v>
+        <v>6.486442626315749</v>
       </c>
       <c r="M20">
-        <v>14.4580538356476</v>
+        <v>10.90946481175783</v>
       </c>
       <c r="N20">
-        <v>20.42064110684913</v>
+        <v>12.68523993308824</v>
       </c>
       <c r="O20">
-        <v>25.90053100649056</v>
+        <v>17.4293969454008</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.88561593346206</v>
+        <v>17.10440977040433</v>
       </c>
       <c r="C21">
-        <v>10.01698838441084</v>
+        <v>7.767023727005318</v>
       </c>
       <c r="D21">
-        <v>6.247399594691681</v>
+        <v>5.816243116592472</v>
       </c>
       <c r="E21">
-        <v>12.75468255286407</v>
+        <v>7.955654957967701</v>
       </c>
       <c r="F21">
-        <v>29.02935166058636</v>
+        <v>22.5747668098285</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.03147167397614</v>
+        <v>13.55722042107496</v>
       </c>
       <c r="L21">
-        <v>9.927027102828799</v>
+        <v>6.61613712270593</v>
       </c>
       <c r="M21">
-        <v>14.51261323137925</v>
+        <v>11.32868996392392</v>
       </c>
       <c r="N21">
-        <v>20.35006853553772</v>
+        <v>12.4234755875742</v>
       </c>
       <c r="O21">
-        <v>25.85006467080281</v>
+        <v>17.59366988710162</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.07005385657072</v>
+        <v>17.7362229676343</v>
       </c>
       <c r="C22">
-        <v>10.02482353779251</v>
+        <v>7.798158106253831</v>
       </c>
       <c r="D22">
-        <v>6.282650053612063</v>
+        <v>5.916357244386664</v>
       </c>
       <c r="E22">
-        <v>12.73973879542503</v>
+        <v>7.977184394923839</v>
       </c>
       <c r="F22">
-        <v>29.04204665919802</v>
+        <v>22.94583401612965</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.16963768517806</v>
+        <v>14.00609357467455</v>
       </c>
       <c r="L22">
-        <v>9.928623776861663</v>
+        <v>6.702387986678043</v>
       </c>
       <c r="M22">
-        <v>14.54996982768572</v>
+        <v>11.59865632567737</v>
       </c>
       <c r="N22">
-        <v>20.30543792004244</v>
+        <v>12.25412872801856</v>
       </c>
       <c r="O22">
-        <v>25.82132378295466</v>
+        <v>17.71459519692579</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.97174303331895</v>
+        <v>17.40148076047389</v>
       </c>
       <c r="C23">
-        <v>10.0206333889794</v>
+        <v>7.781508235230585</v>
       </c>
       <c r="D23">
-        <v>6.263899169006613</v>
+        <v>5.863161338331803</v>
       </c>
       <c r="E23">
-        <v>12.74758169317035</v>
+        <v>7.965329583903152</v>
       </c>
       <c r="F23">
-        <v>29.0347497628095</v>
+        <v>22.74674078794708</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.09602320546048</v>
+        <v>13.76817939469086</v>
       </c>
       <c r="L23">
-        <v>9.927667947914095</v>
+        <v>6.65622263717003</v>
       </c>
       <c r="M23">
-        <v>14.52987881043382</v>
+        <v>11.45495893782437</v>
       </c>
       <c r="N23">
-        <v>20.32912191275486</v>
+        <v>12.34436333139372</v>
       </c>
       <c r="O23">
-        <v>25.83627496251946</v>
+        <v>17.64878737738018</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.59695708272407</v>
+        <v>16.0791632241552</v>
       </c>
       <c r="C24">
-        <v>10.00495113131033</v>
+        <v>7.719165919635339</v>
       </c>
       <c r="D24">
-        <v>6.191519841906291</v>
+        <v>5.656571721999109</v>
       </c>
       <c r="E24">
-        <v>12.78020598259297</v>
+        <v>7.928313960131801</v>
       </c>
       <c r="F24">
-        <v>29.01858316255045</v>
+        <v>22.01592828114331</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.814675341808032</v>
+        <v>12.83061253247941</v>
       </c>
       <c r="L24">
-        <v>9.926330697013231</v>
+        <v>6.48434898158863</v>
       </c>
       <c r="M24">
-        <v>14.45719128598016</v>
+        <v>10.90254983186044</v>
       </c>
       <c r="N24">
-        <v>20.42181986073427</v>
+        <v>12.68954961479321</v>
       </c>
       <c r="O24">
-        <v>25.90142740183839</v>
+        <v>17.42693491906629</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.18971984047837</v>
+        <v>14.53442354071441</v>
       </c>
       <c r="C25">
-        <v>9.988455321295408</v>
+        <v>7.653422000479345</v>
       </c>
       <c r="D25">
-        <v>6.110660836300553</v>
+        <v>5.423390828731455</v>
       </c>
       <c r="E25">
-        <v>12.82164571916699</v>
+        <v>7.904476358316972</v>
       </c>
       <c r="F25">
-        <v>29.02572806820231</v>
+        <v>21.27851485626852</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.507425693058201</v>
+        <v>11.7409472883019</v>
       </c>
       <c r="L25">
-        <v>9.92979879955856</v>
+        <v>6.305811364574118</v>
       </c>
       <c r="M25">
-        <v>14.3863070898689</v>
+        <v>10.2918068686417</v>
       </c>
       <c r="N25">
-        <v>20.52825598553969</v>
+        <v>13.07022704429823</v>
       </c>
       <c r="O25">
-        <v>25.989886235806</v>
+        <v>17.24307190569056</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.33913074403006</v>
+        <v>14.84884059028289</v>
       </c>
       <c r="C2">
-        <v>7.606277582747431</v>
+        <v>11.63326536157933</v>
       </c>
       <c r="D2">
-        <v>5.243461718381029</v>
+        <v>5.072787547591994</v>
       </c>
       <c r="E2">
-        <v>7.899986836529665</v>
+        <v>10.07473620576019</v>
       </c>
       <c r="F2">
-        <v>20.78029036510259</v>
+        <v>35.0508917634424</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2.762381339581268</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.621556122345673</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>10.87107521997978</v>
+        <v>21.70634088430863</v>
       </c>
       <c r="L2">
-        <v>6.180736946079397</v>
+        <v>6.918721418500227</v>
       </c>
       <c r="M2">
-        <v>9.83235227756507</v>
+        <v>14.10442733603519</v>
       </c>
       <c r="N2">
-        <v>13.35868262577674</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>17.1520573255805</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>15.02841681323447</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.52487986171983</v>
+        <v>13.94082753418111</v>
       </c>
       <c r="C3">
-        <v>7.575105835469271</v>
+        <v>10.92884786128195</v>
       </c>
       <c r="D3">
-        <v>5.116772288125264</v>
+        <v>4.775665248393858</v>
       </c>
       <c r="E3">
-        <v>7.904695724569165</v>
+        <v>9.503414391453731</v>
       </c>
       <c r="F3">
-        <v>20.47085236323828</v>
+        <v>33.98630335525733</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3.045959235898156</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.833322877529502</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>10.23958713171476</v>
+        <v>21.36690481942111</v>
       </c>
       <c r="L3">
-        <v>6.100193401941127</v>
+        <v>6.658950897188133</v>
       </c>
       <c r="M3">
-        <v>9.516735847302376</v>
+        <v>13.3187191576623</v>
       </c>
       <c r="N3">
-        <v>13.55972700569845</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>17.11627476959326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>15.11269057093979</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.00125454255995</v>
+        <v>13.35232697858447</v>
       </c>
       <c r="C4">
-        <v>7.556348786004106</v>
+        <v>10.48126001195269</v>
       </c>
       <c r="D4">
-        <v>5.036790337637656</v>
+        <v>4.58555483105059</v>
       </c>
       <c r="E4">
-        <v>7.911277299280036</v>
+        <v>9.13601662962526</v>
       </c>
       <c r="F4">
-        <v>20.29480104862202</v>
+        <v>33.32070291975221</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3.226130369816166</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.968296467434571</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>9.831310560615263</v>
+        <v>21.15710648715758</v>
       </c>
       <c r="L4">
-        <v>6.052896149692254</v>
+        <v>6.49361891086969</v>
       </c>
       <c r="M4">
-        <v>9.321568966527199</v>
+        <v>12.8150052287539</v>
       </c>
       <c r="N4">
-        <v>13.68605234011379</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>17.10646219650788</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>15.16480577322488</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.78205477071828</v>
+        <v>13.09791618161109</v>
       </c>
       <c r="C5">
-        <v>7.548801372856305</v>
+        <v>10.30194033787538</v>
       </c>
       <c r="D5">
-        <v>5.003669882696451</v>
+        <v>4.509953464733838</v>
       </c>
       <c r="E5">
-        <v>7.914867505699198</v>
+        <v>8.983607939613169</v>
       </c>
       <c r="F5">
-        <v>20.22656105520931</v>
+        <v>33.03234664821861</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3.301498170728478</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.027214904912946</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>9.65980829280049</v>
+        <v>21.0605870824695</v>
       </c>
       <c r="L5">
-        <v>6.03417520289817</v>
+        <v>6.424284194176042</v>
       </c>
       <c r="M5">
-        <v>9.241808132042705</v>
+        <v>12.60227348518053</v>
       </c>
       <c r="N5">
-        <v>13.73827575449475</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>17.10542702165671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>15.18290959761914</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.74531004152348</v>
+        <v>13.04677059589139</v>
       </c>
       <c r="C6">
-        <v>7.547553945562864</v>
+        <v>10.28018518529005</v>
       </c>
       <c r="D6">
-        <v>4.998139168883316</v>
+        <v>4.501893632286838</v>
       </c>
       <c r="E6">
-        <v>7.91551792631347</v>
+        <v>8.95980984244483</v>
       </c>
       <c r="F6">
-        <v>20.21544104468202</v>
+        <v>32.9666799580347</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.314590156489203</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.0404567240259</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>9.631022275715912</v>
+        <v>21.03142624300082</v>
       </c>
       <c r="L6">
-        <v>6.031100297856877</v>
+        <v>6.412034005106683</v>
       </c>
       <c r="M6">
-        <v>9.228553680368792</v>
+        <v>12.56385343768814</v>
       </c>
       <c r="N6">
-        <v>13.74699296182364</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>17.10543133993459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>15.18198124542833</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.99832169195641</v>
+        <v>13.32637525879626</v>
       </c>
       <c r="C7">
-        <v>7.556246609187229</v>
+        <v>10.50085185800539</v>
       </c>
       <c r="D7">
-        <v>5.036345764338692</v>
+        <v>4.596851211713322</v>
       </c>
       <c r="E7">
-        <v>7.91132206717537</v>
+        <v>9.138677500009337</v>
       </c>
       <c r="F7">
-        <v>20.29386657313887</v>
+        <v>33.26918725126625</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3.228443456280797</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.978069756333265</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>9.829018315452764</v>
+        <v>21.12017982304206</v>
       </c>
       <c r="L7">
-        <v>6.052641419800567</v>
+        <v>6.490935256628297</v>
       </c>
       <c r="M7">
-        <v>9.320494049019544</v>
+        <v>12.80468133184095</v>
       </c>
       <c r="N7">
-        <v>13.68675360197478</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>17.10643636193432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>15.1543375408736</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.06336021141983</v>
+        <v>14.51450594104453</v>
       </c>
       <c r="C8">
-        <v>7.595450167682731</v>
+        <v>11.42054487300481</v>
       </c>
       <c r="D8">
-        <v>5.200248790934868</v>
+        <v>4.987080054615484</v>
       </c>
       <c r="E8">
-        <v>7.900832667836756</v>
+        <v>9.887013947810159</v>
       </c>
       <c r="F8">
-        <v>20.67070266515369</v>
+        <v>34.62583548473147</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2.860578487899701</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.705090498185978</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>10.65762025668838</v>
+        <v>21.54347327950491</v>
       </c>
       <c r="L8">
-        <v>6.152524648700567</v>
+        <v>6.828181966111623</v>
       </c>
       <c r="M8">
-        <v>9.723881512597654</v>
+        <v>13.82873677300669</v>
       </c>
       <c r="N8">
-        <v>13.42741649174669</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>17.137140420193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>15.0434461369482</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.07077482875081</v>
+        <v>16.63203087571418</v>
       </c>
       <c r="C9">
-        <v>7.67537026655476</v>
+        <v>13.06504282277827</v>
       </c>
       <c r="D9">
-        <v>5.503265527290576</v>
+        <v>5.670553600431057</v>
       </c>
       <c r="E9">
-        <v>7.910424752974015</v>
+        <v>11.21375693261787</v>
       </c>
       <c r="F9">
-        <v>21.52002266803539</v>
+        <v>37.26059523298365</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.183644095186574</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.193296874933735</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>12.11849957031119</v>
+        <v>22.42243081945395</v>
       </c>
       <c r="L9">
-        <v>6.364993366603112</v>
+        <v>7.444743720895995</v>
       </c>
       <c r="M9">
-        <v>10.49927688709157</v>
+        <v>15.67461859104443</v>
       </c>
       <c r="N9">
-        <v>12.94079092442317</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>17.29788652460393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>14.84768100609715</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.44729155495469</v>
+        <v>17.97998546617045</v>
       </c>
       <c r="C10">
-        <v>7.735967156905345</v>
+        <v>14.12392325404848</v>
       </c>
       <c r="D10">
-        <v>5.713486319370189</v>
+        <v>6.064832695067357</v>
       </c>
       <c r="E10">
-        <v>7.937058722516699</v>
+        <v>11.8822458711662</v>
       </c>
       <c r="F10">
-        <v>22.21033567022821</v>
+        <v>38.8242464280253</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1.752986126878063</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.854151269174626</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>13.09123609448983</v>
+        <v>22.91642523660232</v>
       </c>
       <c r="L10">
-        <v>6.530482717113077</v>
+        <v>7.748392104107818</v>
       </c>
       <c r="M10">
-        <v>11.05378194408613</v>
+        <v>16.85936376911279</v>
       </c>
       <c r="N10">
-        <v>12.59525036196565</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.48263885495741</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>14.65871340488466</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.04066251451229</v>
+        <v>18.14803440779593</v>
       </c>
       <c r="C11">
-        <v>7.763951467127443</v>
+        <v>13.91925320770279</v>
       </c>
       <c r="D11">
-        <v>5.806211846704152</v>
+        <v>5.617856071524792</v>
       </c>
       <c r="E11">
-        <v>7.953682166412046</v>
+        <v>10.26706945967583</v>
       </c>
       <c r="F11">
-        <v>22.53844577587695</v>
+        <v>37.10475540822152</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2.765547568402199</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.794957723561488</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>13.51197472787438</v>
+        <v>22.01361825407321</v>
       </c>
       <c r="L11">
-        <v>6.607644905718771</v>
+        <v>6.909752525489675</v>
       </c>
       <c r="M11">
-        <v>11.30175232173521</v>
+        <v>16.87835532003053</v>
       </c>
       <c r="N11">
-        <v>12.44033362399435</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>17.58224334348368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>14.21302082021529</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.26069318454903</v>
+        <v>18.03818236924921</v>
       </c>
       <c r="C12">
-        <v>7.774609451976011</v>
+        <v>13.48324899789122</v>
       </c>
       <c r="D12">
-        <v>5.840891095387029</v>
+        <v>5.141105838034473</v>
       </c>
       <c r="E12">
-        <v>7.960645695720863</v>
+        <v>8.796043086814214</v>
       </c>
       <c r="F12">
-        <v>22.66468352703569</v>
+        <v>35.36911525011962</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.165125746306705</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.793623569325985</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>13.66818010799047</v>
+        <v>21.19531540096851</v>
       </c>
       <c r="L12">
-        <v>6.637120894637512</v>
+        <v>6.215731812094598</v>
       </c>
       <c r="M12">
-        <v>11.39496781232588</v>
+        <v>16.65409825386533</v>
       </c>
       <c r="N12">
-        <v>12.38196940219288</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.62228216183795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>13.91520541484503</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.21351231096491</v>
+        <v>17.67769835795065</v>
       </c>
       <c r="C13">
-        <v>7.772311339373688</v>
+        <v>12.85252367402814</v>
       </c>
       <c r="D13">
-        <v>5.833441835541862</v>
+        <v>4.613878461127655</v>
       </c>
       <c r="E13">
-        <v>7.959115915839339</v>
+        <v>7.34368759275037</v>
       </c>
       <c r="F13">
-        <v>22.63740805751529</v>
+        <v>33.42230714325204</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.606559166962279</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.852235231888444</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>13.63467698509216</v>
+        <v>20.33521644893635</v>
       </c>
       <c r="L13">
-        <v>6.630761530943757</v>
+        <v>5.606635538495556</v>
       </c>
       <c r="M13">
-        <v>11.37492369533472</v>
+        <v>16.21291913433708</v>
       </c>
       <c r="N13">
-        <v>12.39452631675566</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>17.61355457922856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>13.69892920889538</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.05885777742171</v>
+        <v>17.30177725297377</v>
       </c>
       <c r="C14">
-        <v>7.764827079497138</v>
+        <v>12.31822855192876</v>
       </c>
       <c r="D14">
-        <v>5.80907371179906</v>
+        <v>4.219056299733626</v>
       </c>
       <c r="E14">
-        <v>7.954241544187971</v>
+        <v>6.364034888633523</v>
       </c>
       <c r="F14">
-        <v>22.54879176477126</v>
+        <v>31.94286260151617</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.627191464582516</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.923085244931455</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>13.5248882719189</v>
+        <v>19.70653343541581</v>
       </c>
       <c r="L14">
-        <v>6.610064854452722</v>
+        <v>5.251581600758787</v>
       </c>
       <c r="M14">
-        <v>11.30943532391016</v>
+        <v>15.79818047587512</v>
       </c>
       <c r="N14">
-        <v>12.43552612576501</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.58549038462371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>13.58698644016366</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.96352134289738</v>
+        <v>17.14846764528637</v>
       </c>
       <c r="C15">
-        <v>7.760250716427568</v>
+        <v>12.15087142920797</v>
       </c>
       <c r="D15">
-        <v>5.794090575791544</v>
+        <v>4.114533759308299</v>
       </c>
       <c r="E15">
-        <v>7.951343524486994</v>
+        <v>6.126679813501635</v>
       </c>
       <c r="F15">
-        <v>22.49476975441126</v>
+        <v>31.52333120536345</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.866545932378659</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.958200215343362</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>13.4572337100779</v>
+        <v>19.53379056838232</v>
       </c>
       <c r="L15">
-        <v>6.597420516411878</v>
+        <v>5.173350998606368</v>
       </c>
       <c r="M15">
-        <v>11.26923060669013</v>
+        <v>15.64753252551782</v>
       </c>
       <c r="N15">
-        <v>12.46067784662727</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.56860490076286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>13.57188724075914</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.40785752465072</v>
+        <v>16.62952138793645</v>
       </c>
       <c r="C16">
-        <v>7.734146796325601</v>
+        <v>11.76749526149717</v>
       </c>
       <c r="D16">
-        <v>5.707366611601363</v>
+        <v>4.024599690783885</v>
       </c>
       <c r="E16">
-        <v>7.936064792991919</v>
+        <v>6.041871308180187</v>
       </c>
       <c r="F16">
-        <v>22.18917328319246</v>
+        <v>31.15552269993965</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.689209413743839</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.095364054611937</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>13.06330264502781</v>
+        <v>19.46299139465535</v>
       </c>
       <c r="L16">
-        <v>6.525476613755665</v>
+        <v>5.142375218458169</v>
       </c>
       <c r="M16">
-        <v>11.03748418452756</v>
+        <v>15.21203870317783</v>
       </c>
       <c r="N16">
-        <v>12.60541794772994</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.47644976639553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>13.69202823452961</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.05860826516931</v>
+        <v>16.43284242187708</v>
       </c>
       <c r="C17">
-        <v>7.718240530801877</v>
+        <v>11.78587730246775</v>
       </c>
       <c r="D17">
-        <v>5.65340818776202</v>
+        <v>4.174820586001372</v>
       </c>
       <c r="E17">
-        <v>7.927860846476229</v>
+        <v>6.497470381798321</v>
       </c>
       <c r="F17">
-        <v>22.00528199045567</v>
+        <v>31.67603613920244</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.986010067961086</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.16415078501718</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>12.81606993644849</v>
+        <v>19.74397153102117</v>
       </c>
       <c r="L17">
-        <v>6.481812842585875</v>
+        <v>5.293056221483981</v>
       </c>
       <c r="M17">
-        <v>10.89416657399928</v>
+        <v>15.10355696722223</v>
       </c>
       <c r="N17">
-        <v>12.69477416766753</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.42396113850252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>13.84072732362184</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.85463752931969</v>
+        <v>16.51354069739756</v>
       </c>
       <c r="C18">
-        <v>7.709130997656935</v>
+        <v>12.12628324682954</v>
       </c>
       <c r="D18">
-        <v>5.622100155905445</v>
+        <v>4.544748313769108</v>
       </c>
       <c r="E18">
-        <v>7.923565212240807</v>
+        <v>7.559015822609205</v>
       </c>
       <c r="F18">
-        <v>21.90084046232482</v>
+        <v>33.05653528595634</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.779273000404465</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.169065020275022</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>12.67181865710558</v>
+        <v>20.38966388535233</v>
       </c>
       <c r="L18">
-        <v>6.456876401426276</v>
+        <v>5.701409714946529</v>
       </c>
       <c r="M18">
-        <v>10.81133510989817</v>
+        <v>15.27315763026303</v>
       </c>
       <c r="N18">
-        <v>12.74638501604219</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.39523086100543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>14.05089405460085</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.78504395283494</v>
+        <v>16.77499352407599</v>
       </c>
       <c r="C19">
-        <v>7.706053402204491</v>
+        <v>12.71742956190906</v>
       </c>
       <c r="D19">
-        <v>5.611453500280598</v>
+        <v>5.079114688162042</v>
       </c>
       <c r="E19">
-        <v>7.9221828203449</v>
+        <v>9.098655371522856</v>
       </c>
       <c r="F19">
-        <v>21.86570748014964</v>
+        <v>34.94752532015313</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.36252819055915</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.138427840499442</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>12.62262541620271</v>
+        <v>21.23136534774788</v>
       </c>
       <c r="L19">
-        <v>6.448464322627109</v>
+        <v>6.376829259372806</v>
       </c>
       <c r="M19">
-        <v>10.78322358700447</v>
+        <v>15.63720225403168</v>
       </c>
       <c r="N19">
-        <v>12.76389738245457</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.38575140982763</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>14.30182793069707</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.09610605980885</v>
+        <v>17.57878186907228</v>
       </c>
       <c r="C20">
-        <v>7.719929704723139</v>
+        <v>13.89589379334421</v>
       </c>
       <c r="D20">
-        <v>5.659180486976958</v>
+        <v>5.989998333371918</v>
       </c>
       <c r="E20">
-        <v>7.928690237226073</v>
+        <v>11.71160224518042</v>
       </c>
       <c r="F20">
-        <v>22.02472035582761</v>
+        <v>38.27725640465562</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1.867413126844004</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.97389257398722</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>12.84260034523179</v>
+        <v>22.67959561585062</v>
       </c>
       <c r="L20">
-        <v>6.486442626315749</v>
+        <v>7.660176142270688</v>
       </c>
       <c r="M20">
-        <v>10.90946481175783</v>
+        <v>16.53412962335789</v>
       </c>
       <c r="N20">
-        <v>12.68523993308824</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.4293969454008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>14.67479890822739</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.10440977040433</v>
+        <v>18.64906686184256</v>
       </c>
       <c r="C21">
-        <v>7.767023727005318</v>
+        <v>14.83470528921507</v>
       </c>
       <c r="D21">
-        <v>5.816243116592472</v>
+        <v>6.387576538362734</v>
       </c>
       <c r="E21">
-        <v>7.955654957967701</v>
+        <v>12.54771928707346</v>
       </c>
       <c r="F21">
-        <v>22.5747668098285</v>
+        <v>39.90511734572012</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1.634596358888696</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.702182835746725</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>13.55722042107496</v>
+        <v>23.27239414162767</v>
       </c>
       <c r="L21">
-        <v>6.61613712270593</v>
+        <v>8.068001547531958</v>
       </c>
       <c r="M21">
-        <v>11.32868996392392</v>
+        <v>17.49991124359791</v>
       </c>
       <c r="N21">
-        <v>12.4234755875742</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.59366988710162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>14.60214088960073</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.7362229676343</v>
+        <v>19.31862392553191</v>
       </c>
       <c r="C22">
-        <v>7.798158106253831</v>
+        <v>15.37575786867498</v>
       </c>
       <c r="D22">
-        <v>5.916357244386664</v>
+        <v>6.590630735668491</v>
       </c>
       <c r="E22">
-        <v>7.977184394923839</v>
+        <v>12.95799144901737</v>
       </c>
       <c r="F22">
-        <v>22.94583401612965</v>
+        <v>40.8617311417213</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1.857739069503343</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.519144662838765</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>14.00609357467455</v>
+        <v>23.63421479814207</v>
       </c>
       <c r="L22">
-        <v>6.702387986678043</v>
+        <v>8.269710760702727</v>
       </c>
       <c r="M22">
-        <v>11.59865632567737</v>
+        <v>18.14443527900149</v>
       </c>
       <c r="N22">
-        <v>12.25412872801856</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.71459519692579</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>14.54687094887573</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.40148076047389</v>
+        <v>18.98329321136677</v>
       </c>
       <c r="C23">
-        <v>7.781508235230585</v>
+        <v>15.07008729307014</v>
       </c>
       <c r="D23">
-        <v>5.863161338331803</v>
+        <v>6.472200196231914</v>
       </c>
       <c r="E23">
-        <v>7.965329583903152</v>
+        <v>12.73626222122849</v>
       </c>
       <c r="F23">
-        <v>22.74674078794708</v>
+        <v>40.39954728780374</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1.74029854777086</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.60344864652472</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>13.76817939469086</v>
+        <v>23.47904615143248</v>
       </c>
       <c r="L23">
-        <v>6.65622263717003</v>
+        <v>8.164252166131051</v>
       </c>
       <c r="M23">
-        <v>11.45495893782437</v>
+        <v>17.80497434894246</v>
       </c>
       <c r="N23">
-        <v>12.34436333139372</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.64878737738018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>14.58828644345975</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.0791632241552</v>
+        <v>17.62902404383111</v>
       </c>
       <c r="C24">
-        <v>7.719165919635339</v>
+        <v>13.91791306190178</v>
       </c>
       <c r="D24">
-        <v>5.656571721999109</v>
+        <v>6.025540398882267</v>
       </c>
       <c r="E24">
-        <v>7.928313960131801</v>
+        <v>11.87279960991814</v>
       </c>
       <c r="F24">
-        <v>22.01592828114331</v>
+        <v>38.54330730689576</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1.842491798548246</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.952010224402122</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>12.83061253247941</v>
+        <v>22.82859007346774</v>
       </c>
       <c r="L24">
-        <v>6.48434898158863</v>
+        <v>7.750661426709797</v>
       </c>
       <c r="M24">
-        <v>10.90254983186044</v>
+        <v>16.57438277759322</v>
       </c>
       <c r="N24">
-        <v>12.68954961479321</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.42693491906629</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>14.72746097564897</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.53442354071441</v>
+        <v>16.05167451249794</v>
       </c>
       <c r="C25">
-        <v>7.653422000479345</v>
+        <v>12.6671793141327</v>
       </c>
       <c r="D25">
-        <v>5.423390828731455</v>
+        <v>5.511184745143344</v>
       </c>
       <c r="E25">
-        <v>7.904476358316972</v>
+        <v>10.87645446852727</v>
       </c>
       <c r="F25">
-        <v>21.27851485626852</v>
+        <v>36.48239857586798</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.36413818686854</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.34453443095334</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>11.7409472883019</v>
+        <v>22.12529505764233</v>
       </c>
       <c r="L25">
-        <v>6.305811364574118</v>
+        <v>7.28041789835599</v>
       </c>
       <c r="M25">
-        <v>10.2918068686417</v>
+        <v>15.18293272892934</v>
       </c>
       <c r="N25">
-        <v>13.07022704429823</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>17.24307190569056</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>14.88163422615869</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.84884059028289</v>
+        <v>13.95111379595577</v>
       </c>
       <c r="C2">
-        <v>11.63326536157933</v>
+        <v>12.52484883400281</v>
       </c>
       <c r="D2">
-        <v>5.072787547591994</v>
+        <v>5.606505655640246</v>
       </c>
       <c r="E2">
-        <v>10.07473620576019</v>
+        <v>10.38415859412146</v>
       </c>
       <c r="F2">
-        <v>35.0508917634424</v>
+        <v>32.94140645111921</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.762381339581268</v>
+        <v>2.637348548766533</v>
       </c>
       <c r="I2">
-        <v>3.621556122345673</v>
+        <v>3.398780177316657</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>21.70634088430863</v>
+        <v>19.86128111435163</v>
       </c>
       <c r="L2">
-        <v>6.918721418500227</v>
+        <v>15.87403124308945</v>
       </c>
       <c r="M2">
-        <v>14.10442733603519</v>
+        <v>13.6298712596905</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.926624645847859</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.79490071373426</v>
       </c>
       <c r="P2">
-        <v>15.02841681323447</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>14.39557337644671</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.94082753418111</v>
+        <v>13.11190754769801</v>
       </c>
       <c r="C3">
-        <v>10.92884786128195</v>
+        <v>11.75657113383263</v>
       </c>
       <c r="D3">
-        <v>4.775665248393858</v>
+        <v>5.269465380716396</v>
       </c>
       <c r="E3">
-        <v>9.503414391453731</v>
+        <v>9.805059388414508</v>
       </c>
       <c r="F3">
-        <v>33.98630335525733</v>
+        <v>32.0692572023433</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.045959235898156</v>
+        <v>2.905276953338914</v>
       </c>
       <c r="I3">
-        <v>3.833322877529502</v>
+        <v>3.584574756079198</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>21.36690481942111</v>
+        <v>19.66730522564561</v>
       </c>
       <c r="L3">
-        <v>6.658950897188133</v>
+        <v>15.84460220309742</v>
       </c>
       <c r="M3">
-        <v>13.3187191576623</v>
+        <v>13.38056841744011</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.679938438511162</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>13.02949215794706</v>
       </c>
       <c r="P3">
-        <v>15.11269057093979</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>14.52007338910607</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.35232697858447</v>
+        <v>12.56642963761048</v>
       </c>
       <c r="C4">
-        <v>10.48126001195269</v>
+        <v>11.26881615169343</v>
       </c>
       <c r="D4">
-        <v>4.58555483105059</v>
+        <v>5.053814718486256</v>
       </c>
       <c r="E4">
-        <v>9.13601662962526</v>
+        <v>9.432952485434313</v>
       </c>
       <c r="F4">
-        <v>33.32070291975221</v>
+        <v>31.52468563530989</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.226130369816166</v>
+        <v>3.075649603796712</v>
       </c>
       <c r="I4">
-        <v>3.968296467434571</v>
+        <v>3.703373069526463</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>21.15710648715758</v>
+        <v>19.54725170920163</v>
       </c>
       <c r="L4">
-        <v>6.49361891086969</v>
+        <v>15.82113284629746</v>
       </c>
       <c r="M4">
-        <v>12.8150052287539</v>
+        <v>13.24297958137366</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.523044442669187</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.53800843653703</v>
       </c>
       <c r="P4">
-        <v>15.16480577322488</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>14.59688293497953</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.09791618161109</v>
+        <v>12.33005317660007</v>
       </c>
       <c r="C5">
-        <v>10.30194033787538</v>
+        <v>11.07249575666537</v>
       </c>
       <c r="D5">
-        <v>4.509953464733838</v>
+        <v>4.967314431452246</v>
       </c>
       <c r="E5">
-        <v>8.983607939613169</v>
+        <v>9.278562432567842</v>
       </c>
       <c r="F5">
-        <v>33.03234664821861</v>
+        <v>31.28731663737747</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.301498170728478</v>
+        <v>3.146943115120568</v>
       </c>
       <c r="I5">
-        <v>4.027214904912946</v>
+        <v>3.75605194590538</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>21.0605870824695</v>
+        <v>19.48845795423017</v>
       </c>
       <c r="L5">
-        <v>6.424284194176042</v>
+        <v>15.80190971084917</v>
       </c>
       <c r="M5">
-        <v>12.60227348518053</v>
+        <v>13.18465964246085</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.457287643781188</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.33031007805222</v>
       </c>
       <c r="P5">
-        <v>15.18290959761914</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>14.62568903569229</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.04677059589139</v>
+        <v>12.28233620321903</v>
       </c>
       <c r="C6">
-        <v>10.28018518529005</v>
+        <v>11.04736947310678</v>
       </c>
       <c r="D6">
-        <v>4.501893632286838</v>
+        <v>4.957123570312183</v>
       </c>
       <c r="E6">
-        <v>8.95980984244483</v>
+        <v>9.254318733366643</v>
       </c>
       <c r="F6">
-        <v>32.9666799580347</v>
+        <v>31.23142529246952</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.314590156489203</v>
+        <v>3.159318446960883</v>
       </c>
       <c r="I6">
-        <v>4.0404567240259</v>
+        <v>3.768801816417969</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>21.03142624300082</v>
+        <v>19.46690447188705</v>
       </c>
       <c r="L6">
-        <v>6.412034005106683</v>
+        <v>15.78851431597959</v>
       </c>
       <c r="M6">
-        <v>12.56385343768814</v>
+        <v>13.16752083043232</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.445683981769212</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.29287194684853</v>
       </c>
       <c r="P6">
-        <v>15.18198124542833</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>14.62731299130094</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.32637525879626</v>
+        <v>12.54187848379334</v>
       </c>
       <c r="C7">
-        <v>10.50085185800539</v>
+        <v>11.28675780540835</v>
       </c>
       <c r="D7">
-        <v>4.596851211713322</v>
+        <v>5.064152562149142</v>
       </c>
       <c r="E7">
-        <v>9.138677500009337</v>
+        <v>9.43527213864165</v>
       </c>
       <c r="F7">
-        <v>33.26918725126625</v>
+        <v>31.47730612642873</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.228443456280797</v>
+        <v>3.077806185803865</v>
       </c>
       <c r="I7">
-        <v>3.978069756333265</v>
+        <v>3.714499640581369</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>21.12017982304206</v>
+        <v>19.51450521614104</v>
       </c>
       <c r="L7">
-        <v>6.490935256628297</v>
+        <v>15.79379286306052</v>
       </c>
       <c r="M7">
-        <v>12.80468133184095</v>
+        <v>13.22083183311791</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.520533931131729</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.52816165934915</v>
       </c>
       <c r="P7">
-        <v>15.1543375408736</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>14.58871032240124</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.51450594104453</v>
+        <v>13.64181507667489</v>
       </c>
       <c r="C8">
-        <v>11.42054487300481</v>
+        <v>12.28864445627926</v>
       </c>
       <c r="D8">
-        <v>4.987080054615484</v>
+        <v>5.506290352426727</v>
       </c>
       <c r="E8">
-        <v>9.887013947810159</v>
+        <v>10.19338257388138</v>
       </c>
       <c r="F8">
-        <v>34.62583548473147</v>
+        <v>32.58645644625695</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.860578487899701</v>
+        <v>2.730047974754164</v>
       </c>
       <c r="I8">
-        <v>3.705090498185978</v>
+        <v>3.475256314891368</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>21.54347327950491</v>
+        <v>19.75329273888944</v>
       </c>
       <c r="L8">
-        <v>6.828181966111623</v>
+        <v>15.83145776554182</v>
       </c>
       <c r="M8">
-        <v>13.82873677300669</v>
+        <v>13.51151154900668</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.840673859150293</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.52677267968482</v>
       </c>
       <c r="P8">
-        <v>15.0434461369482</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>14.42747186498686</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.63203087571418</v>
+        <v>15.59187344438003</v>
       </c>
       <c r="C9">
-        <v>13.06504282277827</v>
+        <v>14.08717481947802</v>
       </c>
       <c r="D9">
-        <v>5.670553600431057</v>
+        <v>6.283940287923566</v>
       </c>
       <c r="E9">
-        <v>11.21375693261787</v>
+        <v>11.53957727299438</v>
       </c>
       <c r="F9">
-        <v>37.26059523298365</v>
+        <v>34.75642212997828</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.183644095186574</v>
+        <v>2.0913980131872</v>
       </c>
       <c r="I9">
-        <v>3.193296874933735</v>
+        <v>3.025693278329184</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>22.42243081945395</v>
+        <v>20.26938541944974</v>
       </c>
       <c r="L9">
-        <v>7.444743720895995</v>
+        <v>15.90729949064326</v>
       </c>
       <c r="M9">
-        <v>15.67461859104443</v>
+        <v>14.237373267686</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.426652652367285</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.32071562640608</v>
       </c>
       <c r="P9">
-        <v>14.84768100609715</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>14.12842508735622</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.97998546617045</v>
+        <v>16.8738731908671</v>
       </c>
       <c r="C10">
-        <v>14.12392325404848</v>
+        <v>15.23638975649106</v>
       </c>
       <c r="D10">
-        <v>6.064832695067357</v>
+        <v>6.735516245104109</v>
       </c>
       <c r="E10">
-        <v>11.8822458711662</v>
+        <v>12.21931133308155</v>
       </c>
       <c r="F10">
-        <v>38.8242464280253</v>
+        <v>36.02679925586548</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.752986126878063</v>
+        <v>1.687858251645936</v>
       </c>
       <c r="I10">
-        <v>2.854151269174626</v>
+        <v>2.731449232881545</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>22.91642523660232</v>
+        <v>20.52848708652288</v>
       </c>
       <c r="L10">
-        <v>7.748392104107818</v>
+        <v>15.85161764254668</v>
       </c>
       <c r="M10">
-        <v>16.85936376911279</v>
+        <v>14.74116503241989</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.711378965784544</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>16.47049105851772</v>
       </c>
       <c r="P10">
-        <v>14.65871340488466</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>13.87745483401612</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.14803440779593</v>
+        <v>17.10565599314696</v>
       </c>
       <c r="C11">
-        <v>13.91925320770279</v>
+        <v>14.96129316493377</v>
       </c>
       <c r="D11">
-        <v>5.617856071524792</v>
+        <v>6.264839925729975</v>
       </c>
       <c r="E11">
-        <v>10.26706945967583</v>
+        <v>10.59026456005684</v>
       </c>
       <c r="F11">
-        <v>37.10475540822152</v>
+        <v>34.41086317821183</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.765547568402199</v>
+        <v>2.7272106412281</v>
       </c>
       <c r="I11">
-        <v>2.794957723561488</v>
+        <v>2.685239136647973</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>22.01361825407321</v>
+        <v>19.73251312919061</v>
       </c>
       <c r="L11">
-        <v>6.909752525489675</v>
+        <v>15.14982425526502</v>
       </c>
       <c r="M11">
-        <v>16.87835532003053</v>
+        <v>14.26514808937152</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.879366515808773</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.54090292250251</v>
       </c>
       <c r="P11">
-        <v>14.21302082021529</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>13.52436958258491</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.03818236924921</v>
+        <v>17.05893429871596</v>
       </c>
       <c r="C12">
-        <v>13.48324899789122</v>
+        <v>14.45767792147075</v>
       </c>
       <c r="D12">
-        <v>5.141105838034473</v>
+        <v>5.756133381822686</v>
       </c>
       <c r="E12">
-        <v>8.796043086814214</v>
+        <v>9.103624983553903</v>
       </c>
       <c r="F12">
-        <v>35.36911525011962</v>
+        <v>32.82121219368933</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.165125746306705</v>
+        <v>4.138278489066756</v>
       </c>
       <c r="I12">
-        <v>2.793623569325985</v>
+        <v>2.682920223981932</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>21.19531540096851</v>
+        <v>19.05063495843116</v>
       </c>
       <c r="L12">
-        <v>6.215731812094598</v>
+        <v>14.61310275292234</v>
       </c>
       <c r="M12">
-        <v>16.65409825386533</v>
+        <v>13.78024954552554</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.196242538918333</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.35601645195583</v>
       </c>
       <c r="P12">
-        <v>13.91520541484503</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>13.31266782093999</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.67769835795065</v>
+        <v>16.76920566640365</v>
       </c>
       <c r="C13">
-        <v>12.85252367402814</v>
+        <v>13.75441213703723</v>
       </c>
       <c r="D13">
-        <v>4.613878461127655</v>
+        <v>5.187118817651728</v>
       </c>
       <c r="E13">
-        <v>7.34368759275037</v>
+        <v>7.632420361114328</v>
       </c>
       <c r="F13">
-        <v>33.42230714325204</v>
+        <v>31.07020694076012</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.606559166962279</v>
+        <v>5.58340655373468</v>
       </c>
       <c r="I13">
-        <v>2.852235231888444</v>
+        <v>2.732490648173402</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>20.33521644893635</v>
+        <v>18.365188126081</v>
       </c>
       <c r="L13">
-        <v>5.606635538495556</v>
+        <v>14.12597986721002</v>
       </c>
       <c r="M13">
-        <v>16.21291913433708</v>
+        <v>13.22315293506584</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.602847502408014</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.93712271639323</v>
       </c>
       <c r="P13">
-        <v>13.69892920889538</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>13.18397759449242</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.30177725297377</v>
+        <v>16.44763285411868</v>
       </c>
       <c r="C14">
-        <v>12.31822855192876</v>
+        <v>13.16600003899294</v>
       </c>
       <c r="D14">
-        <v>4.219056299733626</v>
+        <v>4.75795418908856</v>
       </c>
       <c r="E14">
-        <v>6.364034888633523</v>
+        <v>6.636669537738335</v>
       </c>
       <c r="F14">
-        <v>31.94286260151617</v>
+        <v>29.75312496866108</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.627191464582516</v>
+        <v>6.60476681658929</v>
       </c>
       <c r="I14">
-        <v>2.923085244931455</v>
+        <v>2.794041207309538</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>19.70653343541581</v>
+        <v>17.87740175702961</v>
       </c>
       <c r="L14">
-        <v>5.251581600758787</v>
+        <v>13.79906785240803</v>
       </c>
       <c r="M14">
-        <v>15.79818047587512</v>
+        <v>12.79797177966942</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.261171399559792</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.53053180433968</v>
       </c>
       <c r="P14">
-        <v>13.58698644016366</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>13.13265846420181</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.14846764528637</v>
+        <v>16.30945366008546</v>
       </c>
       <c r="C15">
-        <v>12.15087142920797</v>
+        <v>12.98477728670554</v>
       </c>
       <c r="D15">
-        <v>4.114533759308299</v>
+        <v>4.642856958654202</v>
       </c>
       <c r="E15">
-        <v>6.126679813501635</v>
+        <v>6.394983929198858</v>
       </c>
       <c r="F15">
-        <v>31.52333120536345</v>
+        <v>29.38503553976082</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.866545932378659</v>
+        <v>6.843718828139103</v>
       </c>
       <c r="I15">
-        <v>2.958200215343362</v>
+        <v>2.82592682386166</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>19.53379056838232</v>
+        <v>17.74813846632355</v>
       </c>
       <c r="L15">
-        <v>5.173350998606368</v>
+        <v>13.71988363759486</v>
       </c>
       <c r="M15">
-        <v>15.64753252551782</v>
+        <v>12.67389106620037</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.186988320068779</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.37744647629068</v>
       </c>
       <c r="P15">
-        <v>13.57188724075914</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>13.1332362119911</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.62952138793645</v>
+        <v>15.79898162928775</v>
       </c>
       <c r="C16">
-        <v>11.76749526149717</v>
+        <v>12.60394208667816</v>
       </c>
       <c r="D16">
-        <v>4.024599690783885</v>
+        <v>4.535726568017216</v>
       </c>
       <c r="E16">
-        <v>6.041871308180187</v>
+        <v>6.313051591131602</v>
       </c>
       <c r="F16">
-        <v>31.15552269993965</v>
+        <v>29.11278927932457</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.689209413743839</v>
+        <v>6.660491877370552</v>
       </c>
       <c r="I16">
-        <v>3.095364054611937</v>
+        <v>2.946870962582024</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>19.46299139465535</v>
+        <v>17.74772182655135</v>
       </c>
       <c r="L16">
-        <v>5.142375218458169</v>
+        <v>13.79525831484186</v>
       </c>
       <c r="M16">
-        <v>15.21203870317783</v>
+        <v>12.56155801888068</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.16228492180877</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.91813695549105</v>
       </c>
       <c r="P16">
-        <v>13.69202823452961</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>13.2575111890227</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.43284242187708</v>
+        <v>15.57785246776088</v>
       </c>
       <c r="C17">
-        <v>11.78587730246775</v>
+        <v>12.63879185237821</v>
       </c>
       <c r="D17">
-        <v>4.174820586001372</v>
+        <v>4.691312143265606</v>
       </c>
       <c r="E17">
-        <v>6.497470381798321</v>
+        <v>6.77893663244154</v>
       </c>
       <c r="F17">
-        <v>31.67603613920244</v>
+        <v>29.61802197550407</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.986010067961086</v>
+        <v>5.950998802510851</v>
       </c>
       <c r="I17">
-        <v>3.16415078501718</v>
+        <v>3.008198294262726</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>19.74397153102117</v>
+        <v>18.00713683024385</v>
       </c>
       <c r="L17">
-        <v>5.293056221483981</v>
+        <v>14.03310260438657</v>
       </c>
       <c r="M17">
-        <v>15.10355696722223</v>
+        <v>12.69959560957477</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.310502766433787</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.80721451961231</v>
       </c>
       <c r="P17">
-        <v>13.84072732362184</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>13.37919360493176</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.51354069739756</v>
+        <v>15.60387746760225</v>
       </c>
       <c r="C18">
-        <v>12.12628324682954</v>
+        <v>13.02302826112079</v>
       </c>
       <c r="D18">
-        <v>4.544748313769108</v>
+        <v>5.086814423493091</v>
       </c>
       <c r="E18">
-        <v>7.559015822609205</v>
+        <v>7.854512309571593</v>
       </c>
       <c r="F18">
-        <v>33.05653528595634</v>
+        <v>30.88331587279958</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.779273000404465</v>
+        <v>4.735510717433559</v>
       </c>
       <c r="I18">
-        <v>3.169065020275022</v>
+        <v>3.010815324161124</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>20.38966388535233</v>
+        <v>18.54690433064079</v>
       </c>
       <c r="L18">
-        <v>5.701409714946529</v>
+        <v>14.46503015900151</v>
       </c>
       <c r="M18">
-        <v>15.27315763026303</v>
+        <v>13.08067006789184</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.708649033745444</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.9619926700601</v>
       </c>
       <c r="P18">
-        <v>14.05089405460085</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>13.52874825913467</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.77499352407599</v>
+        <v>15.79532824607177</v>
       </c>
       <c r="C19">
-        <v>12.71742956190906</v>
+        <v>13.68039377191571</v>
       </c>
       <c r="D19">
-        <v>5.079114688162042</v>
+        <v>5.659457027251105</v>
       </c>
       <c r="E19">
-        <v>9.098655371522856</v>
+        <v>9.408712654853627</v>
       </c>
       <c r="F19">
-        <v>34.94752532015313</v>
+        <v>32.59427878283208</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.36252819055915</v>
+        <v>3.305347067724037</v>
       </c>
       <c r="I19">
-        <v>3.138427840499442</v>
+        <v>2.986428288796187</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>21.23136534774788</v>
+        <v>19.22910724743303</v>
       </c>
       <c r="L19">
-        <v>6.376829259372806</v>
+        <v>14.99050351271387</v>
       </c>
       <c r="M19">
-        <v>15.63720225403168</v>
+        <v>13.59235340318936</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.369617578560685</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.30332431259344</v>
       </c>
       <c r="P19">
-        <v>14.30182793069707</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>13.69684240142681</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.57878186907228</v>
+        <v>16.48712168690717</v>
       </c>
       <c r="C20">
-        <v>13.89589379334421</v>
+        <v>14.985515916986</v>
       </c>
       <c r="D20">
-        <v>5.989998333371918</v>
+        <v>6.643952851969516</v>
       </c>
       <c r="E20">
-        <v>11.71160224518042</v>
+        <v>12.04509306153573</v>
       </c>
       <c r="F20">
-        <v>38.27725640465562</v>
+        <v>35.56586696497124</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.867413126844004</v>
+        <v>1.794741233104249</v>
       </c>
       <c r="I20">
-        <v>2.97389257398722</v>
+        <v>2.844995982076473</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>22.67959561585062</v>
+        <v>20.36464238563369</v>
       </c>
       <c r="L20">
-        <v>7.660176142270688</v>
+        <v>15.79567419308643</v>
       </c>
       <c r="M20">
-        <v>16.53412962335789</v>
+        <v>14.53151679586191</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.62847229932992</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>16.15573545974957</v>
       </c>
       <c r="P20">
-        <v>14.67479890822739</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>13.9181249226482</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.64906686184256</v>
+        <v>17.51101616719799</v>
       </c>
       <c r="C21">
-        <v>14.83470528921507</v>
+        <v>15.9713459353774</v>
       </c>
       <c r="D21">
-        <v>6.387576538362734</v>
+        <v>7.092431981099445</v>
       </c>
       <c r="E21">
-        <v>12.54771928707346</v>
+        <v>12.89259612992664</v>
       </c>
       <c r="F21">
-        <v>39.90511734572012</v>
+        <v>36.93245483746155</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.634596358888696</v>
+        <v>1.68456169649851</v>
       </c>
       <c r="I21">
-        <v>2.702182835746725</v>
+        <v>2.608812516039476</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>23.27239414162767</v>
+        <v>20.74012010003039</v>
       </c>
       <c r="L21">
-        <v>8.068001547531958</v>
+        <v>15.88098202529961</v>
       </c>
       <c r="M21">
-        <v>17.49991124359791</v>
+        <v>15.06949372700042</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.019686829280328</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>17.14085091889645</v>
       </c>
       <c r="P21">
-        <v>14.60214088960073</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>13.77513023616675</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.31862392553191</v>
+        <v>18.15116045246292</v>
       </c>
       <c r="C22">
-        <v>15.37575786867498</v>
+        <v>16.54535292626444</v>
       </c>
       <c r="D22">
-        <v>6.590630735668491</v>
+        <v>7.325375896875102</v>
       </c>
       <c r="E22">
-        <v>12.95799144901737</v>
+        <v>13.30918145290012</v>
       </c>
       <c r="F22">
-        <v>40.8617311417213</v>
+        <v>37.73292152110802</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.857739069503343</v>
+        <v>1.894118937492166</v>
       </c>
       <c r="I22">
-        <v>2.519144662838765</v>
+        <v>2.572609468837952</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>23.63421479814207</v>
+        <v>20.96982248741749</v>
       </c>
       <c r="L22">
-        <v>8.269710760702727</v>
+        <v>15.91980914383301</v>
       </c>
       <c r="M22">
-        <v>18.14443527900149</v>
+        <v>15.4182382017565</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.211547841972939</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>17.76974167164959</v>
       </c>
       <c r="P22">
-        <v>14.54687094887573</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>13.67702325224363</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.98329321136677</v>
+        <v>17.83050098997404</v>
       </c>
       <c r="C23">
-        <v>15.07008729307014</v>
+        <v>16.21663232949253</v>
       </c>
       <c r="D23">
-        <v>6.472200196231914</v>
+        <v>7.191760918136296</v>
       </c>
       <c r="E23">
-        <v>12.73626222122849</v>
+        <v>13.0843453369672</v>
       </c>
       <c r="F23">
-        <v>40.39954728780374</v>
+        <v>37.35034183609721</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.74029854777086</v>
+        <v>1.783795243085715</v>
       </c>
       <c r="I23">
-        <v>2.60344864652472</v>
+        <v>2.51716785345273</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>23.47904615143248</v>
+        <v>20.88110913378062</v>
       </c>
       <c r="L23">
-        <v>8.164252166131051</v>
+        <v>15.92408110481649</v>
       </c>
       <c r="M23">
-        <v>17.80497434894246</v>
+        <v>15.25804405522658</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.11118657706588</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>17.44292176118379</v>
       </c>
       <c r="P23">
-        <v>14.58828644345975</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>13.73834090567591</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.62902404383111</v>
+        <v>16.52852123326614</v>
       </c>
       <c r="C24">
-        <v>13.91791306190178</v>
+        <v>15.01549769001513</v>
       </c>
       <c r="D24">
-        <v>6.025540398882267</v>
+        <v>6.684098258992306</v>
       </c>
       <c r="E24">
-        <v>11.87279960991814</v>
+        <v>12.208038655366</v>
       </c>
       <c r="F24">
-        <v>38.54330730689576</v>
+        <v>35.80967752496422</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.842491798548246</v>
+        <v>1.770065683172221</v>
       </c>
       <c r="I24">
-        <v>2.952010224402122</v>
+        <v>2.820028075775235</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>22.82859007346774</v>
+        <v>20.49191584318386</v>
       </c>
       <c r="L24">
-        <v>7.750661426709797</v>
+        <v>15.8945088402647</v>
       </c>
       <c r="M24">
-        <v>16.57438277759322</v>
+        <v>14.62561491237569</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.717698406725834</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>16.1931935280476</v>
       </c>
       <c r="P24">
-        <v>14.72746097564897</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>13.95681348341042</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.05167451249794</v>
+        <v>15.05781164635158</v>
       </c>
       <c r="C25">
-        <v>12.6671793141327</v>
+        <v>13.64682464627264</v>
       </c>
       <c r="D25">
-        <v>5.511184745143344</v>
+        <v>6.098958132998682</v>
       </c>
       <c r="E25">
-        <v>10.87645446852727</v>
+        <v>11.19669305808202</v>
       </c>
       <c r="F25">
-        <v>36.48239857586798</v>
+        <v>34.10632078932498</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.36413818686854</v>
+        <v>2.26145458312849</v>
       </c>
       <c r="I25">
-        <v>3.34453443095334</v>
+        <v>3.163094915655682</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>22.12529505764233</v>
+        <v>20.07597905964411</v>
       </c>
       <c r="L25">
-        <v>7.28041789835599</v>
+        <v>15.84904222318578</v>
       </c>
       <c r="M25">
-        <v>15.18293272892934</v>
+        <v>13.9887476699979</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.270478544762672</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.8438442528651</v>
       </c>
       <c r="P25">
-        <v>14.88163422615869</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>14.19474323025847</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
